--- a/export/Reports/FactSheets/System_Disposition_Fact_Sheet_Template.xlsx
+++ b/export/Reports/FactSheets/System_Disposition_Fact_Sheet_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="873"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="873" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="System Overview" sheetId="21" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Future Interface Development'!$A$1:$H$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Future Interface Sustainment'!$A$1:$G$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Site List'!$A$1:$F$46</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'System Overview'!$A$1:$T$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'System Overview'!$A$1:$T$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Future Interface Decommission'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Future Interface Development'!$6:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Future Interface Sustainment'!$6:$6</definedName>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="110">
   <si>
     <t>Create</t>
   </si>
@@ -219,13 +219,7 @@
     <t>None</t>
   </si>
   <si>
-    <t># of Unique Interfaces Supported</t>
-  </si>
-  <si>
     <t># of Unique Data Objects</t>
-  </si>
-  <si>
-    <t>Capabilities Supported</t>
   </si>
   <si>
     <t>Army:The Service Uniform Business Offices (UBOs) have been tasked by the TRICARE Management Activity (TMA) with creating one solution – the Armed Forces Billing and Collections Utilization Solution (ABACUS) – to manage the billing and collection activities for Third Party Collections (TPC), the Medical Services Account (MSA), and Medical Affirmative Claims (MACs). The ABACUS will replace the Third Party Outpatient Collection System (TPOCS), which is scheduled to terminate on 30 Sep 14.</t>
@@ -465,6 +459,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t># of Interfaces Supported</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1459,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1799,9 +1796,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1864,15 +1858,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1964,6 +1949,15 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="%" xfId="2"/>
@@ -2030,895 +2024,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feeder!$B$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Number of Capabilities Supported</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Feeder!$A$16:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>HSD</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>HSS</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FHP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feeder!$B$16:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="67"/>
-        <c:axId val="504836368"/>
-        <c:axId val="504836760"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="504836368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1080" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="504836760"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="504836760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="504836368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>35717</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>39289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>881063</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>1142999</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26154,10 +25259,10 @@
     <tabColor theme="4" tint="-6.1037018951994385E-5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:S11"/>
+    <sheetView view="pageLayout" topLeftCell="A15" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26191,7 +25296,7 @@
       </c>
       <c r="C1" s="72"/>
       <c r="D1" s="73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E1" s="73"/>
       <c r="F1" s="73"/>
@@ -26232,11 +25337,11 @@
     </row>
     <row r="3" spans="1:20" ht="23.25" customHeight="1">
       <c r="B3" s="77" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="81"/>
@@ -26256,11 +25361,11 @@
     </row>
     <row r="4" spans="1:20" ht="25.5" customHeight="1">
       <c r="B4" s="77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="78" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="79"/>
@@ -26281,7 +25386,7 @@
     <row r="5" spans="1:20" s="8" customFormat="1" ht="113.25" customHeight="1">
       <c r="A5"/>
       <c r="B5" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="75"/>
       <c r="D5" s="75"/>
@@ -26359,7 +25464,7 @@
     <row r="8" spans="1:20" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A8"/>
       <c r="B8" s="113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="113"/>
       <c r="D8" s="113"/>
@@ -26382,58 +25487,58 @@
     </row>
     <row r="9" spans="1:20" s="15" customFormat="1" ht="33.75" customHeight="1">
       <c r="A9"/>
-      <c r="B9" s="139" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
+      <c r="B9" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
       <c r="T9"/>
     </row>
     <row r="10" spans="1:20" s="15" customFormat="1" ht="99" customHeight="1">
       <c r="A10"/>
       <c r="B10" s="103" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="103"/>
       <c r="D10" s="103"/>
-      <c r="E10" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="142"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="143"/>
+      <c r="E10" s="140" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="141"/>
+      <c r="Q10" s="141"/>
+      <c r="R10" s="141"/>
+      <c r="S10" s="142"/>
       <c r="T10"/>
     </row>
     <row r="11" spans="1:20" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A11"/>
       <c r="B11" s="91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
@@ -26446,7 +25551,7 @@
       <c r="I11" s="89"/>
       <c r="J11" s="89"/>
       <c r="K11" s="91" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L11" s="92"/>
       <c r="M11" s="92"/>
@@ -26485,7 +25590,7 @@
     <row r="13" spans="1:20" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A13"/>
       <c r="B13" s="113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="113"/>
       <c r="D13" s="113"/>
@@ -26508,69 +25613,69 @@
     </row>
     <row r="14" spans="1:20" s="15" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14"/>
-      <c r="B14" s="140" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
+      <c r="B14" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
       <c r="L14"/>
-      <c r="M14" s="140" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="140"/>
-      <c r="O14" s="140"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="140"/>
-      <c r="R14" s="140"/>
-      <c r="S14" s="140"/>
+      <c r="M14" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
       <c r="T14"/>
     </row>
     <row r="15" spans="1:20" s="15" customFormat="1" ht="62.25" customHeight="1">
       <c r="A15"/>
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="137"/>
+      <c r="D15" s="136" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="137"/>
+      <c r="F15" s="136" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="138"/>
-      <c r="D15" s="137" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="137" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="138"/>
-      <c r="H15" s="137" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="138"/>
-      <c r="J15" s="137" t="s">
+      <c r="G15" s="137"/>
+      <c r="H15" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="137"/>
+      <c r="J15" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="138"/>
+      <c r="K15" s="137"/>
       <c r="L15" s="62"/>
-      <c r="M15" s="137" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" s="138"/>
+      <c r="M15" s="136" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="137"/>
       <c r="O15" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="137"/>
+      <c r="R15" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="64" t="s">
-        <v>52</v>
-      </c>
       <c r="S15" s="65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="T15"/>
     </row>
@@ -26662,220 +25767,217 @@
       <c r="S18" s="24"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" s="15" customFormat="1" ht="21" customHeight="1">
-      <c r="A19"/>
-      <c r="B19" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="113"/>
-      <c r="Q19" s="113"/>
-      <c r="R19" s="113"/>
-      <c r="S19" s="113"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" ht="29.45" customHeight="1">
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="136"/>
-      <c r="N20" s="136"/>
-      <c r="O20" s="136"/>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="136"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="136"/>
-    </row>
-    <row r="21" spans="1:20" ht="93.75" customHeight="1">
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="136"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="136"/>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
-      <c r="Q21" s="136"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="136"/>
-    </row>
-    <row r="22" spans="1:20" ht="5.25" customHeight="1">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-    </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A23"/>
-      <c r="B23" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="113"/>
-      <c r="P23" s="113"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
-      <c r="S23" s="113"/>
-      <c r="T23"/>
-    </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A24"/>
-      <c r="B24" s="105" t="s">
+    <row r="19" spans="1:20" ht="5.25" customHeight="1">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A20"/>
+      <c r="B20" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="113"/>
+      <c r="N20" s="113"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="113"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21"/>
+      <c r="B21" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="105" t="s">
+      <c r="C21" s="106"/>
+      <c r="D21" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="116" t="s">
+      <c r="E21" s="106"/>
+      <c r="F21" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="117"/>
-      <c r="H24" s="109" t="s">
+      <c r="G21" s="117"/>
+      <c r="H21" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="110"/>
-      <c r="J24" s="105" t="s">
+      <c r="I21" s="110"/>
+      <c r="J21" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="114"/>
-      <c r="L24" s="106"/>
-      <c r="M24" s="105" t="s">
+      <c r="K21" s="114"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="106"/>
-      <c r="O24" s="105" t="s">
+      <c r="N21" s="106"/>
+      <c r="O21" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="106"/>
-      <c r="Q24" s="105" t="s">
+      <c r="P21" s="106"/>
+      <c r="Q21" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="R24" s="114"/>
-      <c r="S24" s="106"/>
-      <c r="T24"/>
-    </row>
-    <row r="25" spans="1:20" ht="27.75" customHeight="1">
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="65" t="s">
+      <c r="R21" s="114"/>
+      <c r="S21" s="106"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" ht="27.75" customHeight="1">
+      <c r="B22" s="107"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="G22" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="108"/>
-    </row>
-    <row r="26" spans="1:20" ht="42.75" customHeight="1">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="83" t="s">
+      <c r="H22" s="111"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="115"/>
+      <c r="S22" s="108"/>
+    </row>
+    <row r="23" spans="1:20" ht="42.75" customHeight="1">
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="18" t="s">
+      <c r="E23" s="83"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H26" s="84" t="s">
+      <c r="H23" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="85"/>
-      <c r="J26" s="86" t="s">
+      <c r="I23" s="85"/>
+      <c r="J23" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="104" t="s">
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="N26" s="104"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="125"/>
-      <c r="S26" s="126"/>
-    </row>
-    <row r="27" spans="1:20" ht="6" customHeight="1">
-      <c r="J27" s="9"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-    </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A28"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="125"/>
+      <c r="S23" s="126"/>
+    </row>
+    <row r="24" spans="1:20" ht="6" customHeight="1">
+      <c r="J24" s="9"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="1:20" ht="21" customHeight="1">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+    </row>
+    <row r="28" spans="1:20" ht="27" customHeight="1">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -26894,78 +25996,77 @@
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
-      <c r="T28"/>
-    </row>
-    <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-    </row>
-    <row r="30" spans="1:20" ht="21" customHeight="1">
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-    </row>
-    <row r="31" spans="1:20" ht="27" customHeight="1">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-    </row>
-    <row r="32" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+    </row>
+    <row r="29" spans="1:20" ht="20.25" customHeight="1">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="9"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
       <c r="S32" s="9"/>
     </row>
     <row r="33" spans="2:19">
@@ -27048,68 +26149,8 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
     </row>
-    <row r="37" spans="2:19">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-    </row>
-    <row r="38" spans="2:19">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-    </row>
-    <row r="39" spans="2:19">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="57">
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="J15:K15"/>
@@ -27124,32 +26165,30 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="B19:S19"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="J16:K17"/>
     <mergeCell ref="B16:C17"/>
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="H16:I17"/>
     <mergeCell ref="M16:N17"/>
     <mergeCell ref="R16:R17"/>
-    <mergeCell ref="M24:N25"/>
-    <mergeCell ref="O24:P25"/>
-    <mergeCell ref="Q24:S25"/>
-    <mergeCell ref="B20:S21"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="H24:I25"/>
-    <mergeCell ref="B23:S23"/>
-    <mergeCell ref="J24:L25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="Q21:S22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="B20:S20"/>
+    <mergeCell ref="J21:L22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="P11:S11"/>
@@ -27160,8 +26199,8 @@
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:S1"/>
     <mergeCell ref="B5:S5"/>
@@ -27186,11 +26225,10 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"@SYSTEM@&amp;C&amp;"-,Bold"  OTM System Disposition Fact Sheets&amp;R&amp;"-,Bold" Section 1</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -27245,16 +26283,16 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="144" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="A2" s="143" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -27267,18 +26305,18 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A4" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="147" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
+      <c r="A4" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
@@ -27292,28 +26330,28 @@
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="D6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="E6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="F6" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="G6" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="H6" s="68" t="s">
         <v>61</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -27370,16 +26408,16 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="18.75">
-      <c r="A2" s="144" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="A2" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -27392,18 +26430,18 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1">
-      <c r="A4" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="147" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
+      <c r="A4" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1"/>
@@ -27417,28 +26455,28 @@
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="D6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="E6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="F6" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="G6" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="H6" s="68" t="s">
         <v>61</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -27493,15 +26531,15 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="144" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
+      <c r="A2" s="143" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -27513,17 +26551,17 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="36.75" customHeight="1">
-      <c r="A4" s="145" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="147" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
+      <c r="A4" s="144" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="145"/>
+      <c r="C4" s="146" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
@@ -27536,25 +26574,25 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="D6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="E6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="F6" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="G6" s="68" t="s">
         <v>60</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -27588,7 +26626,7 @@
   </sheetPr>
   <dimension ref="A1:K535"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -27616,12 +26654,12 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -27645,13 +26683,13 @@
     <row r="4" spans="1:11" ht="36.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="149" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="151"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="150"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -27674,25 +26712,25 @@
     </row>
     <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="2"/>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="157"/>
-      <c r="D6" s="157"/>
-      <c r="E6" s="157"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154"/>
       <c r="E7" s="61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -27700,3178 +26738,3178 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="154"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="153"/>
       <c r="E8" s="70"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
       <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2"/>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
       <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2"/>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
+      <c r="B11" s="147"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
       <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="148"/>
-      <c r="D13" s="148"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
       <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="70"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2"/>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="70"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="148"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
       <c r="E17" s="70"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="70"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="70"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
       <c r="E20" s="70"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
       <c r="E21" s="70"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="148"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="148"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="70"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
       <c r="E23" s="70"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
       <c r="E24" s="70"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
       <c r="E25" s="70"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
       <c r="E26" s="70"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
       <c r="E27" s="70"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
       <c r="E28" s="70"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="148"/>
-      <c r="C29" s="148"/>
-      <c r="D29" s="148"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="70"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
       <c r="E30" s="70"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="70"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
       <c r="E32" s="70"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
       <c r="E33" s="70"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
-      <c r="D34" s="148"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
       <c r="E34" s="70"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="148"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
       <c r="E35" s="70"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
       <c r="E36" s="70"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
       <c r="E37" s="70"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
       <c r="E38" s="70"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
       <c r="E39" s="70"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="148"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="148"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
       <c r="E40" s="70"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
-      <c r="D41" s="148"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
       <c r="E41" s="70"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="148"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
       <c r="E42" s="70"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="148"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
       <c r="E43" s="70"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
       <c r="E44" s="70"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
       <c r="E45" s="70"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
       <c r="E46" s="70"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="148"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
       <c r="E47" s="70"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="148"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
       <c r="E48" s="70"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="148"/>
-      <c r="C49" s="148"/>
-      <c r="D49" s="148"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
       <c r="E49" s="70"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="148"/>
-      <c r="C50" s="148"/>
-      <c r="D50" s="148"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
       <c r="E50" s="70"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="148"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
       <c r="E51" s="70"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="148"/>
-      <c r="C52" s="148"/>
-      <c r="D52" s="148"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
       <c r="E52" s="70"/>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="148"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="148"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="147"/>
       <c r="E53" s="70"/>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="148"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="148"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
       <c r="E54" s="70"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="148"/>
-      <c r="C55" s="148"/>
-      <c r="D55" s="148"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="147"/>
       <c r="E55" s="70"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="148"/>
-      <c r="C56" s="148"/>
-      <c r="D56" s="148"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="147"/>
       <c r="E56" s="70"/>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="148"/>
-      <c r="C57" s="148"/>
-      <c r="D57" s="148"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
       <c r="E57" s="70"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="148"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
       <c r="E58" s="70"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="148"/>
-      <c r="C59" s="148"/>
-      <c r="D59" s="148"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="147"/>
       <c r="E59" s="70"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="148"/>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
       <c r="E60" s="70"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
       <c r="E61" s="70"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="148"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="148"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
       <c r="E62" s="70"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="148"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="148"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
       <c r="E63" s="70"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="148"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="148"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
       <c r="E64" s="70"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="148"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="148"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="147"/>
       <c r="E65" s="70"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="148"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="148"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="147"/>
       <c r="E66" s="70"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="148"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="147"/>
       <c r="E67" s="70"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="148"/>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="147"/>
       <c r="E68" s="70"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="148"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="147"/>
+      <c r="D69" s="147"/>
       <c r="E69" s="70"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="148"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="148"/>
+      <c r="B70" s="147"/>
+      <c r="C70" s="147"/>
+      <c r="D70" s="147"/>
       <c r="E70" s="70"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="148"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
+      <c r="B71" s="147"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="147"/>
       <c r="E71" s="70"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="148"/>
-      <c r="C72" s="148"/>
-      <c r="D72" s="148"/>
+      <c r="B72" s="147"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="147"/>
       <c r="E72" s="70"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="148"/>
-      <c r="C73" s="148"/>
-      <c r="D73" s="148"/>
+      <c r="B73" s="147"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="147"/>
       <c r="E73" s="70"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="148"/>
-      <c r="C74" s="148"/>
-      <c r="D74" s="148"/>
+      <c r="B74" s="147"/>
+      <c r="C74" s="147"/>
+      <c r="D74" s="147"/>
       <c r="E74" s="70"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="148"/>
-      <c r="C75" s="148"/>
-      <c r="D75" s="148"/>
+      <c r="B75" s="147"/>
+      <c r="C75" s="147"/>
+      <c r="D75" s="147"/>
       <c r="E75" s="70"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="148"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
+      <c r="B76" s="147"/>
+      <c r="C76" s="147"/>
+      <c r="D76" s="147"/>
       <c r="E76" s="70"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="148"/>
-      <c r="C77" s="148"/>
-      <c r="D77" s="148"/>
+      <c r="B77" s="147"/>
+      <c r="C77" s="147"/>
+      <c r="D77" s="147"/>
       <c r="E77" s="70"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="148"/>
-      <c r="C78" s="148"/>
-      <c r="D78" s="148"/>
+      <c r="B78" s="147"/>
+      <c r="C78" s="147"/>
+      <c r="D78" s="147"/>
       <c r="E78" s="70"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="148"/>
-      <c r="C79" s="148"/>
-      <c r="D79" s="148"/>
+      <c r="B79" s="147"/>
+      <c r="C79" s="147"/>
+      <c r="D79" s="147"/>
       <c r="E79" s="70"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="148"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="148"/>
+      <c r="B80" s="147"/>
+      <c r="C80" s="147"/>
+      <c r="D80" s="147"/>
       <c r="E80" s="70"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="148"/>
-      <c r="C81" s="148"/>
-      <c r="D81" s="148"/>
+      <c r="B81" s="147"/>
+      <c r="C81" s="147"/>
+      <c r="D81" s="147"/>
       <c r="E81" s="70"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="148"/>
-      <c r="C82" s="148"/>
-      <c r="D82" s="148"/>
+      <c r="B82" s="147"/>
+      <c r="C82" s="147"/>
+      <c r="D82" s="147"/>
       <c r="E82" s="70"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="148"/>
-      <c r="C83" s="148"/>
-      <c r="D83" s="148"/>
+      <c r="B83" s="147"/>
+      <c r="C83" s="147"/>
+      <c r="D83" s="147"/>
       <c r="E83" s="70"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="148"/>
-      <c r="C84" s="148"/>
-      <c r="D84" s="148"/>
+      <c r="B84" s="147"/>
+      <c r="C84" s="147"/>
+      <c r="D84" s="147"/>
       <c r="E84" s="70"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="148"/>
-      <c r="C85" s="148"/>
-      <c r="D85" s="148"/>
+      <c r="B85" s="147"/>
+      <c r="C85" s="147"/>
+      <c r="D85" s="147"/>
       <c r="E85" s="70"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="148"/>
-      <c r="C86" s="148"/>
-      <c r="D86" s="148"/>
+      <c r="B86" s="147"/>
+      <c r="C86" s="147"/>
+      <c r="D86" s="147"/>
       <c r="E86" s="70"/>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="148"/>
-      <c r="C87" s="148"/>
-      <c r="D87" s="148"/>
+      <c r="B87" s="147"/>
+      <c r="C87" s="147"/>
+      <c r="D87" s="147"/>
       <c r="E87" s="70"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="148"/>
-      <c r="C88" s="148"/>
-      <c r="D88" s="148"/>
+      <c r="B88" s="147"/>
+      <c r="C88" s="147"/>
+      <c r="D88" s="147"/>
       <c r="E88" s="70"/>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="148"/>
-      <c r="C89" s="148"/>
-      <c r="D89" s="148"/>
+      <c r="B89" s="147"/>
+      <c r="C89" s="147"/>
+      <c r="D89" s="147"/>
       <c r="E89" s="70"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="148"/>
-      <c r="C90" s="148"/>
-      <c r="D90" s="148"/>
+      <c r="B90" s="147"/>
+      <c r="C90" s="147"/>
+      <c r="D90" s="147"/>
       <c r="E90" s="70"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="148"/>
-      <c r="C91" s="148"/>
-      <c r="D91" s="148"/>
+      <c r="B91" s="147"/>
+      <c r="C91" s="147"/>
+      <c r="D91" s="147"/>
       <c r="E91" s="70"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="148"/>
-      <c r="C92" s="148"/>
-      <c r="D92" s="148"/>
+      <c r="B92" s="147"/>
+      <c r="C92" s="147"/>
+      <c r="D92" s="147"/>
       <c r="E92" s="70"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="148"/>
-      <c r="C93" s="148"/>
-      <c r="D93" s="148"/>
+      <c r="B93" s="147"/>
+      <c r="C93" s="147"/>
+      <c r="D93" s="147"/>
       <c r="E93" s="70"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="148"/>
-      <c r="C94" s="148"/>
-      <c r="D94" s="148"/>
+      <c r="B94" s="147"/>
+      <c r="C94" s="147"/>
+      <c r="D94" s="147"/>
       <c r="E94" s="70"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="148"/>
-      <c r="C95" s="148"/>
-      <c r="D95" s="148"/>
+      <c r="B95" s="147"/>
+      <c r="C95" s="147"/>
+      <c r="D95" s="147"/>
       <c r="E95" s="70"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="148"/>
-      <c r="C96" s="148"/>
-      <c r="D96" s="148"/>
+      <c r="B96" s="147"/>
+      <c r="C96" s="147"/>
+      <c r="D96" s="147"/>
       <c r="E96" s="70"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="148"/>
-      <c r="C97" s="148"/>
-      <c r="D97" s="148"/>
+      <c r="B97" s="147"/>
+      <c r="C97" s="147"/>
+      <c r="D97" s="147"/>
       <c r="E97" s="70"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="148"/>
-      <c r="C98" s="148"/>
-      <c r="D98" s="148"/>
+      <c r="B98" s="147"/>
+      <c r="C98" s="147"/>
+      <c r="D98" s="147"/>
       <c r="E98" s="70"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="148"/>
-      <c r="C99" s="148"/>
-      <c r="D99" s="148"/>
+      <c r="B99" s="147"/>
+      <c r="C99" s="147"/>
+      <c r="D99" s="147"/>
       <c r="E99" s="70"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="148"/>
-      <c r="C100" s="148"/>
-      <c r="D100" s="148"/>
+      <c r="B100" s="147"/>
+      <c r="C100" s="147"/>
+      <c r="D100" s="147"/>
       <c r="E100" s="70"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="148"/>
-      <c r="C101" s="148"/>
-      <c r="D101" s="148"/>
+      <c r="B101" s="147"/>
+      <c r="C101" s="147"/>
+      <c r="D101" s="147"/>
       <c r="E101" s="70"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="148"/>
-      <c r="C102" s="148"/>
-      <c r="D102" s="148"/>
+      <c r="B102" s="147"/>
+      <c r="C102" s="147"/>
+      <c r="D102" s="147"/>
       <c r="E102" s="70"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="148"/>
-      <c r="C103" s="148"/>
-      <c r="D103" s="148"/>
+      <c r="B103" s="147"/>
+      <c r="C103" s="147"/>
+      <c r="D103" s="147"/>
       <c r="E103" s="70"/>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="148"/>
-      <c r="C104" s="148"/>
-      <c r="D104" s="148"/>
+      <c r="B104" s="147"/>
+      <c r="C104" s="147"/>
+      <c r="D104" s="147"/>
       <c r="E104" s="70"/>
     </row>
     <row r="105" spans="2:5">
-      <c r="B105" s="148"/>
-      <c r="C105" s="148"/>
-      <c r="D105" s="148"/>
+      <c r="B105" s="147"/>
+      <c r="C105" s="147"/>
+      <c r="D105" s="147"/>
       <c r="E105" s="70"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="148"/>
-      <c r="C106" s="148"/>
-      <c r="D106" s="148"/>
+      <c r="B106" s="147"/>
+      <c r="C106" s="147"/>
+      <c r="D106" s="147"/>
       <c r="E106" s="70"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="148"/>
-      <c r="C107" s="148"/>
-      <c r="D107" s="148"/>
+      <c r="B107" s="147"/>
+      <c r="C107" s="147"/>
+      <c r="D107" s="147"/>
       <c r="E107" s="70"/>
     </row>
     <row r="108" spans="2:5">
-      <c r="B108" s="148"/>
-      <c r="C108" s="148"/>
-      <c r="D108" s="148"/>
+      <c r="B108" s="147"/>
+      <c r="C108" s="147"/>
+      <c r="D108" s="147"/>
       <c r="E108" s="70"/>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="148"/>
-      <c r="C109" s="148"/>
-      <c r="D109" s="148"/>
+      <c r="B109" s="147"/>
+      <c r="C109" s="147"/>
+      <c r="D109" s="147"/>
       <c r="E109" s="70"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="148"/>
-      <c r="C110" s="148"/>
-      <c r="D110" s="148"/>
+      <c r="B110" s="147"/>
+      <c r="C110" s="147"/>
+      <c r="D110" s="147"/>
       <c r="E110" s="70"/>
     </row>
     <row r="111" spans="2:5">
-      <c r="B111" s="148"/>
-      <c r="C111" s="148"/>
-      <c r="D111" s="148"/>
+      <c r="B111" s="147"/>
+      <c r="C111" s="147"/>
+      <c r="D111" s="147"/>
       <c r="E111" s="70"/>
     </row>
     <row r="112" spans="2:5">
-      <c r="B112" s="148"/>
-      <c r="C112" s="148"/>
-      <c r="D112" s="148"/>
+      <c r="B112" s="147"/>
+      <c r="C112" s="147"/>
+      <c r="D112" s="147"/>
       <c r="E112" s="70"/>
     </row>
     <row r="113" spans="2:5">
-      <c r="B113" s="148"/>
-      <c r="C113" s="148"/>
-      <c r="D113" s="148"/>
+      <c r="B113" s="147"/>
+      <c r="C113" s="147"/>
+      <c r="D113" s="147"/>
       <c r="E113" s="70"/>
     </row>
     <row r="114" spans="2:5">
-      <c r="B114" s="148"/>
-      <c r="C114" s="148"/>
-      <c r="D114" s="148"/>
+      <c r="B114" s="147"/>
+      <c r="C114" s="147"/>
+      <c r="D114" s="147"/>
       <c r="E114" s="70"/>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="148"/>
-      <c r="C115" s="148"/>
-      <c r="D115" s="148"/>
+      <c r="B115" s="147"/>
+      <c r="C115" s="147"/>
+      <c r="D115" s="147"/>
       <c r="E115" s="70"/>
     </row>
     <row r="116" spans="2:5">
-      <c r="B116" s="148"/>
-      <c r="C116" s="148"/>
-      <c r="D116" s="148"/>
+      <c r="B116" s="147"/>
+      <c r="C116" s="147"/>
+      <c r="D116" s="147"/>
       <c r="E116" s="70"/>
     </row>
     <row r="117" spans="2:5">
-      <c r="B117" s="148"/>
-      <c r="C117" s="148"/>
-      <c r="D117" s="148"/>
+      <c r="B117" s="147"/>
+      <c r="C117" s="147"/>
+      <c r="D117" s="147"/>
       <c r="E117" s="70"/>
     </row>
     <row r="118" spans="2:5">
-      <c r="B118" s="148"/>
-      <c r="C118" s="148"/>
-      <c r="D118" s="148"/>
+      <c r="B118" s="147"/>
+      <c r="C118" s="147"/>
+      <c r="D118" s="147"/>
       <c r="E118" s="70"/>
     </row>
     <row r="119" spans="2:5">
-      <c r="B119" s="148"/>
-      <c r="C119" s="148"/>
-      <c r="D119" s="148"/>
+      <c r="B119" s="147"/>
+      <c r="C119" s="147"/>
+      <c r="D119" s="147"/>
       <c r="E119" s="70"/>
     </row>
     <row r="120" spans="2:5">
-      <c r="B120" s="148"/>
-      <c r="C120" s="148"/>
-      <c r="D120" s="148"/>
+      <c r="B120" s="147"/>
+      <c r="C120" s="147"/>
+      <c r="D120" s="147"/>
       <c r="E120" s="70"/>
     </row>
     <row r="121" spans="2:5">
-      <c r="B121" s="148"/>
-      <c r="C121" s="148"/>
-      <c r="D121" s="148"/>
+      <c r="B121" s="147"/>
+      <c r="C121" s="147"/>
+      <c r="D121" s="147"/>
       <c r="E121" s="70"/>
     </row>
     <row r="122" spans="2:5">
-      <c r="B122" s="148"/>
-      <c r="C122" s="148"/>
-      <c r="D122" s="148"/>
+      <c r="B122" s="147"/>
+      <c r="C122" s="147"/>
+      <c r="D122" s="147"/>
       <c r="E122" s="70"/>
     </row>
     <row r="123" spans="2:5">
-      <c r="B123" s="148"/>
-      <c r="C123" s="148"/>
-      <c r="D123" s="148"/>
+      <c r="B123" s="147"/>
+      <c r="C123" s="147"/>
+      <c r="D123" s="147"/>
       <c r="E123" s="70"/>
     </row>
     <row r="124" spans="2:5">
-      <c r="B124" s="148"/>
-      <c r="C124" s="148"/>
-      <c r="D124" s="148"/>
+      <c r="B124" s="147"/>
+      <c r="C124" s="147"/>
+      <c r="D124" s="147"/>
       <c r="E124" s="70"/>
     </row>
     <row r="125" spans="2:5">
-      <c r="B125" s="148"/>
-      <c r="C125" s="148"/>
-      <c r="D125" s="148"/>
+      <c r="B125" s="147"/>
+      <c r="C125" s="147"/>
+      <c r="D125" s="147"/>
       <c r="E125" s="70"/>
     </row>
     <row r="126" spans="2:5">
-      <c r="B126" s="148"/>
-      <c r="C126" s="148"/>
-      <c r="D126" s="148"/>
+      <c r="B126" s="147"/>
+      <c r="C126" s="147"/>
+      <c r="D126" s="147"/>
       <c r="E126" s="70"/>
     </row>
     <row r="127" spans="2:5">
-      <c r="B127" s="148"/>
-      <c r="C127" s="148"/>
-      <c r="D127" s="148"/>
+      <c r="B127" s="147"/>
+      <c r="C127" s="147"/>
+      <c r="D127" s="147"/>
       <c r="E127" s="70"/>
     </row>
     <row r="128" spans="2:5">
-      <c r="B128" s="148"/>
-      <c r="C128" s="148"/>
-      <c r="D128" s="148"/>
+      <c r="B128" s="147"/>
+      <c r="C128" s="147"/>
+      <c r="D128" s="147"/>
       <c r="E128" s="70"/>
     </row>
     <row r="129" spans="2:5">
-      <c r="B129" s="148"/>
-      <c r="C129" s="148"/>
-      <c r="D129" s="148"/>
+      <c r="B129" s="147"/>
+      <c r="C129" s="147"/>
+      <c r="D129" s="147"/>
       <c r="E129" s="70"/>
     </row>
     <row r="130" spans="2:5">
-      <c r="B130" s="148"/>
-      <c r="C130" s="148"/>
-      <c r="D130" s="148"/>
+      <c r="B130" s="147"/>
+      <c r="C130" s="147"/>
+      <c r="D130" s="147"/>
       <c r="E130" s="70"/>
     </row>
     <row r="131" spans="2:5">
-      <c r="B131" s="148"/>
-      <c r="C131" s="148"/>
-      <c r="D131" s="148"/>
+      <c r="B131" s="147"/>
+      <c r="C131" s="147"/>
+      <c r="D131" s="147"/>
       <c r="E131" s="70"/>
     </row>
     <row r="132" spans="2:5">
-      <c r="B132" s="148"/>
-      <c r="C132" s="148"/>
-      <c r="D132" s="148"/>
+      <c r="B132" s="147"/>
+      <c r="C132" s="147"/>
+      <c r="D132" s="147"/>
       <c r="E132" s="70"/>
     </row>
     <row r="133" spans="2:5">
-      <c r="B133" s="148"/>
-      <c r="C133" s="148"/>
-      <c r="D133" s="148"/>
+      <c r="B133" s="147"/>
+      <c r="C133" s="147"/>
+      <c r="D133" s="147"/>
       <c r="E133" s="70"/>
     </row>
     <row r="134" spans="2:5">
-      <c r="B134" s="148"/>
-      <c r="C134" s="148"/>
-      <c r="D134" s="148"/>
+      <c r="B134" s="147"/>
+      <c r="C134" s="147"/>
+      <c r="D134" s="147"/>
       <c r="E134" s="70"/>
     </row>
     <row r="135" spans="2:5">
-      <c r="B135" s="148"/>
-      <c r="C135" s="148"/>
-      <c r="D135" s="148"/>
+      <c r="B135" s="147"/>
+      <c r="C135" s="147"/>
+      <c r="D135" s="147"/>
       <c r="E135" s="70"/>
     </row>
     <row r="136" spans="2:5">
-      <c r="B136" s="148"/>
-      <c r="C136" s="148"/>
-      <c r="D136" s="148"/>
+      <c r="B136" s="147"/>
+      <c r="C136" s="147"/>
+      <c r="D136" s="147"/>
       <c r="E136" s="70"/>
     </row>
     <row r="137" spans="2:5">
-      <c r="B137" s="148"/>
-      <c r="C137" s="148"/>
-      <c r="D137" s="148"/>
+      <c r="B137" s="147"/>
+      <c r="C137" s="147"/>
+      <c r="D137" s="147"/>
       <c r="E137" s="70"/>
     </row>
     <row r="138" spans="2:5">
-      <c r="B138" s="148"/>
-      <c r="C138" s="148"/>
-      <c r="D138" s="148"/>
+      <c r="B138" s="147"/>
+      <c r="C138" s="147"/>
+      <c r="D138" s="147"/>
       <c r="E138" s="70"/>
     </row>
     <row r="139" spans="2:5">
-      <c r="B139" s="148"/>
-      <c r="C139" s="148"/>
-      <c r="D139" s="148"/>
+      <c r="B139" s="147"/>
+      <c r="C139" s="147"/>
+      <c r="D139" s="147"/>
       <c r="E139" s="70"/>
     </row>
     <row r="140" spans="2:5">
-      <c r="B140" s="148"/>
-      <c r="C140" s="148"/>
-      <c r="D140" s="148"/>
+      <c r="B140" s="147"/>
+      <c r="C140" s="147"/>
+      <c r="D140" s="147"/>
       <c r="E140" s="70"/>
     </row>
     <row r="141" spans="2:5">
-      <c r="B141" s="148"/>
-      <c r="C141" s="148"/>
-      <c r="D141" s="148"/>
+      <c r="B141" s="147"/>
+      <c r="C141" s="147"/>
+      <c r="D141" s="147"/>
       <c r="E141" s="70"/>
     </row>
     <row r="142" spans="2:5">
-      <c r="B142" s="148"/>
-      <c r="C142" s="148"/>
-      <c r="D142" s="148"/>
+      <c r="B142" s="147"/>
+      <c r="C142" s="147"/>
+      <c r="D142" s="147"/>
       <c r="E142" s="70"/>
     </row>
     <row r="143" spans="2:5">
-      <c r="B143" s="148"/>
-      <c r="C143" s="148"/>
-      <c r="D143" s="148"/>
+      <c r="B143" s="147"/>
+      <c r="C143" s="147"/>
+      <c r="D143" s="147"/>
       <c r="E143" s="70"/>
     </row>
     <row r="144" spans="2:5">
-      <c r="B144" s="148"/>
-      <c r="C144" s="148"/>
-      <c r="D144" s="148"/>
+      <c r="B144" s="147"/>
+      <c r="C144" s="147"/>
+      <c r="D144" s="147"/>
       <c r="E144" s="70"/>
     </row>
     <row r="145" spans="2:5">
-      <c r="B145" s="148"/>
-      <c r="C145" s="148"/>
-      <c r="D145" s="148"/>
+      <c r="B145" s="147"/>
+      <c r="C145" s="147"/>
+      <c r="D145" s="147"/>
       <c r="E145" s="70"/>
     </row>
     <row r="146" spans="2:5">
-      <c r="B146" s="148"/>
-      <c r="C146" s="148"/>
-      <c r="D146" s="148"/>
+      <c r="B146" s="147"/>
+      <c r="C146" s="147"/>
+      <c r="D146" s="147"/>
       <c r="E146" s="70"/>
     </row>
     <row r="147" spans="2:5">
-      <c r="B147" s="148"/>
-      <c r="C147" s="148"/>
-      <c r="D147" s="148"/>
+      <c r="B147" s="147"/>
+      <c r="C147" s="147"/>
+      <c r="D147" s="147"/>
       <c r="E147" s="70"/>
     </row>
     <row r="148" spans="2:5">
-      <c r="B148" s="148"/>
-      <c r="C148" s="148"/>
-      <c r="D148" s="148"/>
+      <c r="B148" s="147"/>
+      <c r="C148" s="147"/>
+      <c r="D148" s="147"/>
       <c r="E148" s="70"/>
     </row>
     <row r="149" spans="2:5">
-      <c r="B149" s="148"/>
-      <c r="C149" s="148"/>
-      <c r="D149" s="148"/>
+      <c r="B149" s="147"/>
+      <c r="C149" s="147"/>
+      <c r="D149" s="147"/>
       <c r="E149" s="70"/>
     </row>
     <row r="150" spans="2:5">
-      <c r="B150" s="148"/>
-      <c r="C150" s="148"/>
-      <c r="D150" s="148"/>
+      <c r="B150" s="147"/>
+      <c r="C150" s="147"/>
+      <c r="D150" s="147"/>
       <c r="E150" s="70"/>
     </row>
     <row r="151" spans="2:5">
-      <c r="B151" s="148"/>
-      <c r="C151" s="148"/>
-      <c r="D151" s="148"/>
+      <c r="B151" s="147"/>
+      <c r="C151" s="147"/>
+      <c r="D151" s="147"/>
       <c r="E151" s="70"/>
     </row>
     <row r="152" spans="2:5">
-      <c r="B152" s="148"/>
-      <c r="C152" s="148"/>
-      <c r="D152" s="148"/>
+      <c r="B152" s="147"/>
+      <c r="C152" s="147"/>
+      <c r="D152" s="147"/>
       <c r="E152" s="70"/>
     </row>
     <row r="153" spans="2:5">
-      <c r="B153" s="148"/>
-      <c r="C153" s="148"/>
-      <c r="D153" s="148"/>
+      <c r="B153" s="147"/>
+      <c r="C153" s="147"/>
+      <c r="D153" s="147"/>
       <c r="E153" s="70"/>
     </row>
     <row r="154" spans="2:5">
-      <c r="B154" s="148"/>
-      <c r="C154" s="148"/>
-      <c r="D154" s="148"/>
+      <c r="B154" s="147"/>
+      <c r="C154" s="147"/>
+      <c r="D154" s="147"/>
       <c r="E154" s="70"/>
     </row>
     <row r="155" spans="2:5">
-      <c r="B155" s="148"/>
-      <c r="C155" s="148"/>
-      <c r="D155" s="148"/>
+      <c r="B155" s="147"/>
+      <c r="C155" s="147"/>
+      <c r="D155" s="147"/>
       <c r="E155" s="70"/>
     </row>
     <row r="156" spans="2:5">
-      <c r="B156" s="148"/>
-      <c r="C156" s="148"/>
-      <c r="D156" s="148"/>
+      <c r="B156" s="147"/>
+      <c r="C156" s="147"/>
+      <c r="D156" s="147"/>
       <c r="E156" s="70"/>
     </row>
     <row r="157" spans="2:5">
-      <c r="B157" s="148"/>
-      <c r="C157" s="148"/>
-      <c r="D157" s="148"/>
+      <c r="B157" s="147"/>
+      <c r="C157" s="147"/>
+      <c r="D157" s="147"/>
       <c r="E157" s="70"/>
     </row>
     <row r="158" spans="2:5">
-      <c r="B158" s="148"/>
-      <c r="C158" s="148"/>
-      <c r="D158" s="148"/>
+      <c r="B158" s="147"/>
+      <c r="C158" s="147"/>
+      <c r="D158" s="147"/>
       <c r="E158" s="70"/>
     </row>
     <row r="159" spans="2:5">
-      <c r="B159" s="148"/>
-      <c r="C159" s="148"/>
-      <c r="D159" s="148"/>
+      <c r="B159" s="147"/>
+      <c r="C159" s="147"/>
+      <c r="D159" s="147"/>
       <c r="E159" s="70"/>
     </row>
     <row r="160" spans="2:5">
-      <c r="B160" s="148"/>
-      <c r="C160" s="148"/>
-      <c r="D160" s="148"/>
+      <c r="B160" s="147"/>
+      <c r="C160" s="147"/>
+      <c r="D160" s="147"/>
       <c r="E160" s="70"/>
     </row>
     <row r="161" spans="2:5">
-      <c r="B161" s="148"/>
-      <c r="C161" s="148"/>
-      <c r="D161" s="148"/>
+      <c r="B161" s="147"/>
+      <c r="C161" s="147"/>
+      <c r="D161" s="147"/>
       <c r="E161" s="70"/>
     </row>
     <row r="162" spans="2:5">
-      <c r="B162" s="148"/>
-      <c r="C162" s="148"/>
-      <c r="D162" s="148"/>
+      <c r="B162" s="147"/>
+      <c r="C162" s="147"/>
+      <c r="D162" s="147"/>
       <c r="E162" s="70"/>
     </row>
     <row r="163" spans="2:5">
-      <c r="B163" s="148"/>
-      <c r="C163" s="148"/>
-      <c r="D163" s="148"/>
+      <c r="B163" s="147"/>
+      <c r="C163" s="147"/>
+      <c r="D163" s="147"/>
       <c r="E163" s="70"/>
     </row>
     <row r="164" spans="2:5">
-      <c r="B164" s="148"/>
-      <c r="C164" s="148"/>
-      <c r="D164" s="148"/>
+      <c r="B164" s="147"/>
+      <c r="C164" s="147"/>
+      <c r="D164" s="147"/>
       <c r="E164" s="70"/>
     </row>
     <row r="165" spans="2:5">
-      <c r="B165" s="148"/>
-      <c r="C165" s="148"/>
-      <c r="D165" s="148"/>
+      <c r="B165" s="147"/>
+      <c r="C165" s="147"/>
+      <c r="D165" s="147"/>
       <c r="E165" s="70"/>
     </row>
     <row r="166" spans="2:5">
-      <c r="B166" s="148"/>
-      <c r="C166" s="148"/>
-      <c r="D166" s="148"/>
+      <c r="B166" s="147"/>
+      <c r="C166" s="147"/>
+      <c r="D166" s="147"/>
       <c r="E166" s="70"/>
     </row>
     <row r="167" spans="2:5">
-      <c r="B167" s="148"/>
-      <c r="C167" s="148"/>
-      <c r="D167" s="148"/>
+      <c r="B167" s="147"/>
+      <c r="C167" s="147"/>
+      <c r="D167" s="147"/>
       <c r="E167" s="70"/>
     </row>
     <row r="168" spans="2:5">
-      <c r="B168" s="148"/>
-      <c r="C168" s="148"/>
-      <c r="D168" s="148"/>
+      <c r="B168" s="147"/>
+      <c r="C168" s="147"/>
+      <c r="D168" s="147"/>
       <c r="E168" s="70"/>
     </row>
     <row r="169" spans="2:5">
-      <c r="B169" s="148"/>
-      <c r="C169" s="148"/>
-      <c r="D169" s="148"/>
+      <c r="B169" s="147"/>
+      <c r="C169" s="147"/>
+      <c r="D169" s="147"/>
       <c r="E169" s="70"/>
     </row>
     <row r="170" spans="2:5">
-      <c r="B170" s="148"/>
-      <c r="C170" s="148"/>
-      <c r="D170" s="148"/>
+      <c r="B170" s="147"/>
+      <c r="C170" s="147"/>
+      <c r="D170" s="147"/>
       <c r="E170" s="70"/>
     </row>
     <row r="171" spans="2:5">
-      <c r="B171" s="148"/>
-      <c r="C171" s="148"/>
-      <c r="D171" s="148"/>
+      <c r="B171" s="147"/>
+      <c r="C171" s="147"/>
+      <c r="D171" s="147"/>
       <c r="E171" s="70"/>
     </row>
     <row r="172" spans="2:5">
-      <c r="B172" s="148"/>
-      <c r="C172" s="148"/>
-      <c r="D172" s="148"/>
+      <c r="B172" s="147"/>
+      <c r="C172" s="147"/>
+      <c r="D172" s="147"/>
       <c r="E172" s="70"/>
     </row>
     <row r="173" spans="2:5">
-      <c r="B173" s="148"/>
-      <c r="C173" s="148"/>
-      <c r="D173" s="148"/>
+      <c r="B173" s="147"/>
+      <c r="C173" s="147"/>
+      <c r="D173" s="147"/>
       <c r="E173" s="70"/>
     </row>
     <row r="174" spans="2:5">
-      <c r="B174" s="148"/>
-      <c r="C174" s="148"/>
-      <c r="D174" s="148"/>
+      <c r="B174" s="147"/>
+      <c r="C174" s="147"/>
+      <c r="D174" s="147"/>
       <c r="E174" s="70"/>
     </row>
     <row r="175" spans="2:5">
-      <c r="B175" s="148"/>
-      <c r="C175" s="148"/>
-      <c r="D175" s="148"/>
+      <c r="B175" s="147"/>
+      <c r="C175" s="147"/>
+      <c r="D175" s="147"/>
       <c r="E175" s="70"/>
     </row>
     <row r="176" spans="2:5">
-      <c r="B176" s="148"/>
-      <c r="C176" s="148"/>
-      <c r="D176" s="148"/>
+      <c r="B176" s="147"/>
+      <c r="C176" s="147"/>
+      <c r="D176" s="147"/>
       <c r="E176" s="70"/>
     </row>
     <row r="177" spans="2:5">
-      <c r="B177" s="148"/>
-      <c r="C177" s="148"/>
-      <c r="D177" s="148"/>
+      <c r="B177" s="147"/>
+      <c r="C177" s="147"/>
+      <c r="D177" s="147"/>
       <c r="E177" s="70"/>
     </row>
     <row r="178" spans="2:5">
-      <c r="B178" s="148"/>
-      <c r="C178" s="148"/>
-      <c r="D178" s="148"/>
+      <c r="B178" s="147"/>
+      <c r="C178" s="147"/>
+      <c r="D178" s="147"/>
       <c r="E178" s="70"/>
     </row>
     <row r="179" spans="2:5">
-      <c r="B179" s="148"/>
-      <c r="C179" s="148"/>
-      <c r="D179" s="148"/>
+      <c r="B179" s="147"/>
+      <c r="C179" s="147"/>
+      <c r="D179" s="147"/>
       <c r="E179" s="70"/>
     </row>
     <row r="180" spans="2:5">
-      <c r="B180" s="148"/>
-      <c r="C180" s="148"/>
-      <c r="D180" s="148"/>
+      <c r="B180" s="147"/>
+      <c r="C180" s="147"/>
+      <c r="D180" s="147"/>
       <c r="E180" s="70"/>
     </row>
     <row r="181" spans="2:5">
-      <c r="B181" s="148"/>
-      <c r="C181" s="148"/>
-      <c r="D181" s="148"/>
+      <c r="B181" s="147"/>
+      <c r="C181" s="147"/>
+      <c r="D181" s="147"/>
       <c r="E181" s="70"/>
     </row>
     <row r="182" spans="2:5">
-      <c r="B182" s="148"/>
-      <c r="C182" s="148"/>
-      <c r="D182" s="148"/>
+      <c r="B182" s="147"/>
+      <c r="C182" s="147"/>
+      <c r="D182" s="147"/>
       <c r="E182" s="70"/>
     </row>
     <row r="183" spans="2:5">
-      <c r="B183" s="148"/>
-      <c r="C183" s="148"/>
-      <c r="D183" s="148"/>
+      <c r="B183" s="147"/>
+      <c r="C183" s="147"/>
+      <c r="D183" s="147"/>
       <c r="E183" s="70"/>
     </row>
     <row r="184" spans="2:5">
-      <c r="B184" s="148"/>
-      <c r="C184" s="148"/>
-      <c r="D184" s="148"/>
+      <c r="B184" s="147"/>
+      <c r="C184" s="147"/>
+      <c r="D184" s="147"/>
       <c r="E184" s="70"/>
     </row>
     <row r="185" spans="2:5">
-      <c r="B185" s="148"/>
-      <c r="C185" s="148"/>
-      <c r="D185" s="148"/>
+      <c r="B185" s="147"/>
+      <c r="C185" s="147"/>
+      <c r="D185" s="147"/>
       <c r="E185" s="70"/>
     </row>
     <row r="186" spans="2:5">
-      <c r="B186" s="148"/>
-      <c r="C186" s="148"/>
-      <c r="D186" s="148"/>
+      <c r="B186" s="147"/>
+      <c r="C186" s="147"/>
+      <c r="D186" s="147"/>
       <c r="E186" s="70"/>
     </row>
     <row r="187" spans="2:5">
-      <c r="B187" s="148"/>
-      <c r="C187" s="148"/>
-      <c r="D187" s="148"/>
+      <c r="B187" s="147"/>
+      <c r="C187" s="147"/>
+      <c r="D187" s="147"/>
       <c r="E187" s="70"/>
     </row>
     <row r="188" spans="2:5">
-      <c r="B188" s="148"/>
-      <c r="C188" s="148"/>
-      <c r="D188" s="148"/>
+      <c r="B188" s="147"/>
+      <c r="C188" s="147"/>
+      <c r="D188" s="147"/>
       <c r="E188" s="70"/>
     </row>
     <row r="189" spans="2:5">
-      <c r="B189" s="148"/>
-      <c r="C189" s="148"/>
-      <c r="D189" s="148"/>
+      <c r="B189" s="147"/>
+      <c r="C189" s="147"/>
+      <c r="D189" s="147"/>
       <c r="E189" s="70"/>
     </row>
     <row r="190" spans="2:5">
-      <c r="B190" s="148"/>
-      <c r="C190" s="148"/>
-      <c r="D190" s="148"/>
+      <c r="B190" s="147"/>
+      <c r="C190" s="147"/>
+      <c r="D190" s="147"/>
       <c r="E190" s="70"/>
     </row>
     <row r="191" spans="2:5">
-      <c r="B191" s="148"/>
-      <c r="C191" s="148"/>
-      <c r="D191" s="148"/>
+      <c r="B191" s="147"/>
+      <c r="C191" s="147"/>
+      <c r="D191" s="147"/>
       <c r="E191" s="70"/>
     </row>
     <row r="192" spans="2:5">
-      <c r="B192" s="148"/>
-      <c r="C192" s="148"/>
-      <c r="D192" s="148"/>
+      <c r="B192" s="147"/>
+      <c r="C192" s="147"/>
+      <c r="D192" s="147"/>
       <c r="E192" s="70"/>
     </row>
     <row r="193" spans="2:5">
-      <c r="B193" s="148"/>
-      <c r="C193" s="148"/>
-      <c r="D193" s="148"/>
+      <c r="B193" s="147"/>
+      <c r="C193" s="147"/>
+      <c r="D193" s="147"/>
       <c r="E193" s="70"/>
     </row>
     <row r="194" spans="2:5">
-      <c r="B194" s="148"/>
-      <c r="C194" s="148"/>
-      <c r="D194" s="148"/>
+      <c r="B194" s="147"/>
+      <c r="C194" s="147"/>
+      <c r="D194" s="147"/>
       <c r="E194" s="70"/>
     </row>
     <row r="195" spans="2:5">
-      <c r="B195" s="148"/>
-      <c r="C195" s="148"/>
-      <c r="D195" s="148"/>
+      <c r="B195" s="147"/>
+      <c r="C195" s="147"/>
+      <c r="D195" s="147"/>
       <c r="E195" s="70"/>
     </row>
     <row r="196" spans="2:5">
-      <c r="B196" s="148"/>
-      <c r="C196" s="148"/>
-      <c r="D196" s="148"/>
+      <c r="B196" s="147"/>
+      <c r="C196" s="147"/>
+      <c r="D196" s="147"/>
       <c r="E196" s="70"/>
     </row>
     <row r="197" spans="2:5">
-      <c r="B197" s="148"/>
-      <c r="C197" s="148"/>
-      <c r="D197" s="148"/>
+      <c r="B197" s="147"/>
+      <c r="C197" s="147"/>
+      <c r="D197" s="147"/>
       <c r="E197" s="70"/>
     </row>
     <row r="198" spans="2:5">
-      <c r="B198" s="148"/>
-      <c r="C198" s="148"/>
-      <c r="D198" s="148"/>
+      <c r="B198" s="147"/>
+      <c r="C198" s="147"/>
+      <c r="D198" s="147"/>
       <c r="E198" s="70"/>
     </row>
     <row r="199" spans="2:5">
-      <c r="B199" s="148"/>
-      <c r="C199" s="148"/>
-      <c r="D199" s="148"/>
+      <c r="B199" s="147"/>
+      <c r="C199" s="147"/>
+      <c r="D199" s="147"/>
       <c r="E199" s="70"/>
     </row>
     <row r="200" spans="2:5">
-      <c r="B200" s="148"/>
-      <c r="C200" s="148"/>
-      <c r="D200" s="148"/>
+      <c r="B200" s="147"/>
+      <c r="C200" s="147"/>
+      <c r="D200" s="147"/>
       <c r="E200" s="70"/>
     </row>
     <row r="201" spans="2:5">
-      <c r="B201" s="148"/>
-      <c r="C201" s="148"/>
-      <c r="D201" s="148"/>
+      <c r="B201" s="147"/>
+      <c r="C201" s="147"/>
+      <c r="D201" s="147"/>
       <c r="E201" s="70"/>
     </row>
     <row r="202" spans="2:5">
-      <c r="B202" s="148"/>
-      <c r="C202" s="148"/>
-      <c r="D202" s="148"/>
+      <c r="B202" s="147"/>
+      <c r="C202" s="147"/>
+      <c r="D202" s="147"/>
       <c r="E202" s="70"/>
     </row>
     <row r="203" spans="2:5">
-      <c r="B203" s="148"/>
-      <c r="C203" s="148"/>
-      <c r="D203" s="148"/>
+      <c r="B203" s="147"/>
+      <c r="C203" s="147"/>
+      <c r="D203" s="147"/>
       <c r="E203" s="70"/>
     </row>
     <row r="204" spans="2:5">
-      <c r="B204" s="148"/>
-      <c r="C204" s="148"/>
-      <c r="D204" s="148"/>
+      <c r="B204" s="147"/>
+      <c r="C204" s="147"/>
+      <c r="D204" s="147"/>
       <c r="E204" s="70"/>
     </row>
     <row r="205" spans="2:5">
-      <c r="B205" s="148"/>
-      <c r="C205" s="148"/>
-      <c r="D205" s="148"/>
+      <c r="B205" s="147"/>
+      <c r="C205" s="147"/>
+      <c r="D205" s="147"/>
       <c r="E205" s="70"/>
     </row>
     <row r="206" spans="2:5">
-      <c r="B206" s="148"/>
-      <c r="C206" s="148"/>
-      <c r="D206" s="148"/>
+      <c r="B206" s="147"/>
+      <c r="C206" s="147"/>
+      <c r="D206" s="147"/>
       <c r="E206" s="70"/>
     </row>
     <row r="207" spans="2:5">
-      <c r="B207" s="148"/>
-      <c r="C207" s="148"/>
-      <c r="D207" s="148"/>
+      <c r="B207" s="147"/>
+      <c r="C207" s="147"/>
+      <c r="D207" s="147"/>
       <c r="E207" s="70"/>
     </row>
     <row r="208" spans="2:5">
-      <c r="B208" s="148"/>
-      <c r="C208" s="148"/>
-      <c r="D208" s="148"/>
+      <c r="B208" s="147"/>
+      <c r="C208" s="147"/>
+      <c r="D208" s="147"/>
       <c r="E208" s="70"/>
     </row>
     <row r="209" spans="2:5">
-      <c r="B209" s="148"/>
-      <c r="C209" s="148"/>
-      <c r="D209" s="148"/>
+      <c r="B209" s="147"/>
+      <c r="C209" s="147"/>
+      <c r="D209" s="147"/>
       <c r="E209" s="70"/>
     </row>
     <row r="210" spans="2:5">
-      <c r="B210" s="148"/>
-      <c r="C210" s="148"/>
-      <c r="D210" s="148"/>
+      <c r="B210" s="147"/>
+      <c r="C210" s="147"/>
+      <c r="D210" s="147"/>
       <c r="E210" s="70"/>
     </row>
     <row r="211" spans="2:5">
-      <c r="B211" s="148"/>
-      <c r="C211" s="148"/>
-      <c r="D211" s="148"/>
+      <c r="B211" s="147"/>
+      <c r="C211" s="147"/>
+      <c r="D211" s="147"/>
       <c r="E211" s="70"/>
     </row>
     <row r="212" spans="2:5">
-      <c r="B212" s="148"/>
-      <c r="C212" s="148"/>
-      <c r="D212" s="148"/>
+      <c r="B212" s="147"/>
+      <c r="C212" s="147"/>
+      <c r="D212" s="147"/>
       <c r="E212" s="70"/>
     </row>
     <row r="213" spans="2:5">
-      <c r="B213" s="148"/>
-      <c r="C213" s="148"/>
-      <c r="D213" s="148"/>
+      <c r="B213" s="147"/>
+      <c r="C213" s="147"/>
+      <c r="D213" s="147"/>
       <c r="E213" s="70"/>
     </row>
     <row r="214" spans="2:5">
-      <c r="B214" s="148"/>
-      <c r="C214" s="148"/>
-      <c r="D214" s="148"/>
+      <c r="B214" s="147"/>
+      <c r="C214" s="147"/>
+      <c r="D214" s="147"/>
       <c r="E214" s="70"/>
     </row>
     <row r="215" spans="2:5">
-      <c r="B215" s="148"/>
-      <c r="C215" s="148"/>
-      <c r="D215" s="148"/>
+      <c r="B215" s="147"/>
+      <c r="C215" s="147"/>
+      <c r="D215" s="147"/>
       <c r="E215" s="70"/>
     </row>
     <row r="216" spans="2:5">
-      <c r="B216" s="148"/>
-      <c r="C216" s="148"/>
-      <c r="D216" s="148"/>
+      <c r="B216" s="147"/>
+      <c r="C216" s="147"/>
+      <c r="D216" s="147"/>
       <c r="E216" s="70"/>
     </row>
     <row r="217" spans="2:5">
-      <c r="B217" s="148"/>
-      <c r="C217" s="148"/>
-      <c r="D217" s="148"/>
+      <c r="B217" s="147"/>
+      <c r="C217" s="147"/>
+      <c r="D217" s="147"/>
       <c r="E217" s="70"/>
     </row>
     <row r="218" spans="2:5">
-      <c r="B218" s="148"/>
-      <c r="C218" s="148"/>
-      <c r="D218" s="148"/>
+      <c r="B218" s="147"/>
+      <c r="C218" s="147"/>
+      <c r="D218" s="147"/>
       <c r="E218" s="70"/>
     </row>
     <row r="219" spans="2:5">
-      <c r="B219" s="148"/>
-      <c r="C219" s="148"/>
-      <c r="D219" s="148"/>
+      <c r="B219" s="147"/>
+      <c r="C219" s="147"/>
+      <c r="D219" s="147"/>
       <c r="E219" s="70"/>
     </row>
     <row r="220" spans="2:5">
-      <c r="B220" s="148"/>
-      <c r="C220" s="148"/>
-      <c r="D220" s="148"/>
+      <c r="B220" s="147"/>
+      <c r="C220" s="147"/>
+      <c r="D220" s="147"/>
       <c r="E220" s="70"/>
     </row>
     <row r="221" spans="2:5">
-      <c r="B221" s="148"/>
-      <c r="C221" s="148"/>
-      <c r="D221" s="148"/>
+      <c r="B221" s="147"/>
+      <c r="C221" s="147"/>
+      <c r="D221" s="147"/>
       <c r="E221" s="70"/>
     </row>
     <row r="222" spans="2:5">
-      <c r="B222" s="148"/>
-      <c r="C222" s="148"/>
-      <c r="D222" s="148"/>
+      <c r="B222" s="147"/>
+      <c r="C222" s="147"/>
+      <c r="D222" s="147"/>
       <c r="E222" s="70"/>
     </row>
     <row r="223" spans="2:5">
-      <c r="B223" s="148"/>
-      <c r="C223" s="148"/>
-      <c r="D223" s="148"/>
+      <c r="B223" s="147"/>
+      <c r="C223" s="147"/>
+      <c r="D223" s="147"/>
       <c r="E223" s="70"/>
     </row>
     <row r="224" spans="2:5">
-      <c r="B224" s="148"/>
-      <c r="C224" s="148"/>
-      <c r="D224" s="148"/>
+      <c r="B224" s="147"/>
+      <c r="C224" s="147"/>
+      <c r="D224" s="147"/>
       <c r="E224" s="70"/>
     </row>
     <row r="225" spans="2:5">
-      <c r="B225" s="148"/>
-      <c r="C225" s="148"/>
-      <c r="D225" s="148"/>
+      <c r="B225" s="147"/>
+      <c r="C225" s="147"/>
+      <c r="D225" s="147"/>
       <c r="E225" s="70"/>
     </row>
     <row r="226" spans="2:5">
-      <c r="B226" s="148"/>
-      <c r="C226" s="148"/>
-      <c r="D226" s="148"/>
+      <c r="B226" s="147"/>
+      <c r="C226" s="147"/>
+      <c r="D226" s="147"/>
       <c r="E226" s="70"/>
     </row>
     <row r="227" spans="2:5">
-      <c r="B227" s="148"/>
-      <c r="C227" s="148"/>
-      <c r="D227" s="148"/>
+      <c r="B227" s="147"/>
+      <c r="C227" s="147"/>
+      <c r="D227" s="147"/>
       <c r="E227" s="70"/>
     </row>
     <row r="228" spans="2:5">
-      <c r="B228" s="148"/>
-      <c r="C228" s="148"/>
-      <c r="D228" s="148"/>
+      <c r="B228" s="147"/>
+      <c r="C228" s="147"/>
+      <c r="D228" s="147"/>
       <c r="E228" s="70"/>
     </row>
     <row r="229" spans="2:5">
-      <c r="B229" s="148"/>
-      <c r="C229" s="148"/>
-      <c r="D229" s="148"/>
+      <c r="B229" s="147"/>
+      <c r="C229" s="147"/>
+      <c r="D229" s="147"/>
       <c r="E229" s="70"/>
     </row>
     <row r="230" spans="2:5">
-      <c r="B230" s="148"/>
-      <c r="C230" s="148"/>
-      <c r="D230" s="148"/>
+      <c r="B230" s="147"/>
+      <c r="C230" s="147"/>
+      <c r="D230" s="147"/>
       <c r="E230" s="70"/>
     </row>
     <row r="231" spans="2:5">
-      <c r="B231" s="148"/>
-      <c r="C231" s="148"/>
-      <c r="D231" s="148"/>
+      <c r="B231" s="147"/>
+      <c r="C231" s="147"/>
+      <c r="D231" s="147"/>
       <c r="E231" s="70"/>
     </row>
     <row r="232" spans="2:5">
-      <c r="B232" s="148"/>
-      <c r="C232" s="148"/>
-      <c r="D232" s="148"/>
+      <c r="B232" s="147"/>
+      <c r="C232" s="147"/>
+      <c r="D232" s="147"/>
       <c r="E232" s="70"/>
     </row>
     <row r="233" spans="2:5">
-      <c r="B233" s="148"/>
-      <c r="C233" s="148"/>
-      <c r="D233" s="148"/>
+      <c r="B233" s="147"/>
+      <c r="C233" s="147"/>
+      <c r="D233" s="147"/>
       <c r="E233" s="70"/>
     </row>
     <row r="234" spans="2:5">
-      <c r="B234" s="148"/>
-      <c r="C234" s="148"/>
-      <c r="D234" s="148"/>
+      <c r="B234" s="147"/>
+      <c r="C234" s="147"/>
+      <c r="D234" s="147"/>
       <c r="E234" s="70"/>
     </row>
     <row r="235" spans="2:5">
-      <c r="B235" s="148"/>
-      <c r="C235" s="148"/>
-      <c r="D235" s="148"/>
+      <c r="B235" s="147"/>
+      <c r="C235" s="147"/>
+      <c r="D235" s="147"/>
       <c r="E235" s="70"/>
     </row>
     <row r="236" spans="2:5">
-      <c r="B236" s="148"/>
-      <c r="C236" s="148"/>
-      <c r="D236" s="148"/>
+      <c r="B236" s="147"/>
+      <c r="C236" s="147"/>
+      <c r="D236" s="147"/>
       <c r="E236" s="70"/>
     </row>
     <row r="237" spans="2:5">
-      <c r="B237" s="148"/>
-      <c r="C237" s="148"/>
-      <c r="D237" s="148"/>
+      <c r="B237" s="147"/>
+      <c r="C237" s="147"/>
+      <c r="D237" s="147"/>
       <c r="E237" s="70"/>
     </row>
     <row r="238" spans="2:5">
-      <c r="B238" s="148"/>
-      <c r="C238" s="148"/>
-      <c r="D238" s="148"/>
+      <c r="B238" s="147"/>
+      <c r="C238" s="147"/>
+      <c r="D238" s="147"/>
       <c r="E238" s="70"/>
     </row>
     <row r="239" spans="2:5">
-      <c r="B239" s="148"/>
-      <c r="C239" s="148"/>
-      <c r="D239" s="148"/>
+      <c r="B239" s="147"/>
+      <c r="C239" s="147"/>
+      <c r="D239" s="147"/>
       <c r="E239" s="70"/>
     </row>
     <row r="240" spans="2:5">
-      <c r="B240" s="148"/>
-      <c r="C240" s="148"/>
-      <c r="D240" s="148"/>
+      <c r="B240" s="147"/>
+      <c r="C240" s="147"/>
+      <c r="D240" s="147"/>
       <c r="E240" s="70"/>
     </row>
     <row r="241" spans="2:5">
-      <c r="B241" s="148"/>
-      <c r="C241" s="148"/>
-      <c r="D241" s="148"/>
+      <c r="B241" s="147"/>
+      <c r="C241" s="147"/>
+      <c r="D241" s="147"/>
       <c r="E241" s="70"/>
     </row>
     <row r="242" spans="2:5">
-      <c r="B242" s="148"/>
-      <c r="C242" s="148"/>
-      <c r="D242" s="148"/>
+      <c r="B242" s="147"/>
+      <c r="C242" s="147"/>
+      <c r="D242" s="147"/>
       <c r="E242" s="70"/>
     </row>
     <row r="243" spans="2:5">
-      <c r="B243" s="148"/>
-      <c r="C243" s="148"/>
-      <c r="D243" s="148"/>
+      <c r="B243" s="147"/>
+      <c r="C243" s="147"/>
+      <c r="D243" s="147"/>
       <c r="E243" s="70"/>
     </row>
     <row r="244" spans="2:5">
-      <c r="B244" s="148"/>
-      <c r="C244" s="148"/>
-      <c r="D244" s="148"/>
+      <c r="B244" s="147"/>
+      <c r="C244" s="147"/>
+      <c r="D244" s="147"/>
       <c r="E244" s="70"/>
     </row>
     <row r="245" spans="2:5">
-      <c r="B245" s="148"/>
-      <c r="C245" s="148"/>
-      <c r="D245" s="148"/>
+      <c r="B245" s="147"/>
+      <c r="C245" s="147"/>
+      <c r="D245" s="147"/>
       <c r="E245" s="70"/>
     </row>
     <row r="246" spans="2:5">
-      <c r="B246" s="148"/>
-      <c r="C246" s="148"/>
-      <c r="D246" s="148"/>
+      <c r="B246" s="147"/>
+      <c r="C246" s="147"/>
+      <c r="D246" s="147"/>
       <c r="E246" s="70"/>
     </row>
     <row r="247" spans="2:5">
-      <c r="B247" s="148"/>
-      <c r="C247" s="148"/>
-      <c r="D247" s="148"/>
+      <c r="B247" s="147"/>
+      <c r="C247" s="147"/>
+      <c r="D247" s="147"/>
       <c r="E247" s="70"/>
     </row>
     <row r="248" spans="2:5">
-      <c r="B248" s="148"/>
-      <c r="C248" s="148"/>
-      <c r="D248" s="148"/>
+      <c r="B248" s="147"/>
+      <c r="C248" s="147"/>
+      <c r="D248" s="147"/>
       <c r="E248" s="70"/>
     </row>
     <row r="249" spans="2:5">
-      <c r="B249" s="148"/>
-      <c r="C249" s="148"/>
-      <c r="D249" s="148"/>
+      <c r="B249" s="147"/>
+      <c r="C249" s="147"/>
+      <c r="D249" s="147"/>
       <c r="E249" s="70"/>
     </row>
     <row r="250" spans="2:5">
-      <c r="B250" s="148"/>
-      <c r="C250" s="148"/>
-      <c r="D250" s="148"/>
+      <c r="B250" s="147"/>
+      <c r="C250" s="147"/>
+      <c r="D250" s="147"/>
       <c r="E250" s="70"/>
     </row>
     <row r="251" spans="2:5">
-      <c r="B251" s="148"/>
-      <c r="C251" s="148"/>
-      <c r="D251" s="148"/>
+      <c r="B251" s="147"/>
+      <c r="C251" s="147"/>
+      <c r="D251" s="147"/>
       <c r="E251" s="70"/>
     </row>
     <row r="252" spans="2:5">
-      <c r="B252" s="148"/>
-      <c r="C252" s="148"/>
-      <c r="D252" s="148"/>
+      <c r="B252" s="147"/>
+      <c r="C252" s="147"/>
+      <c r="D252" s="147"/>
       <c r="E252" s="70"/>
     </row>
     <row r="253" spans="2:5">
-      <c r="B253" s="148"/>
-      <c r="C253" s="148"/>
-      <c r="D253" s="148"/>
+      <c r="B253" s="147"/>
+      <c r="C253" s="147"/>
+      <c r="D253" s="147"/>
       <c r="E253" s="70"/>
     </row>
     <row r="254" spans="2:5">
-      <c r="B254" s="148"/>
-      <c r="C254" s="148"/>
-      <c r="D254" s="148"/>
+      <c r="B254" s="147"/>
+      <c r="C254" s="147"/>
+      <c r="D254" s="147"/>
       <c r="E254" s="70"/>
     </row>
     <row r="255" spans="2:5">
-      <c r="B255" s="148"/>
-      <c r="C255" s="148"/>
-      <c r="D255" s="148"/>
+      <c r="B255" s="147"/>
+      <c r="C255" s="147"/>
+      <c r="D255" s="147"/>
       <c r="E255" s="70"/>
     </row>
     <row r="256" spans="2:5">
-      <c r="B256" s="148"/>
-      <c r="C256" s="148"/>
-      <c r="D256" s="148"/>
+      <c r="B256" s="147"/>
+      <c r="C256" s="147"/>
+      <c r="D256" s="147"/>
       <c r="E256" s="70"/>
     </row>
     <row r="257" spans="2:5">
-      <c r="B257" s="148"/>
-      <c r="C257" s="148"/>
-      <c r="D257" s="148"/>
+      <c r="B257" s="147"/>
+      <c r="C257" s="147"/>
+      <c r="D257" s="147"/>
       <c r="E257" s="70"/>
     </row>
     <row r="258" spans="2:5">
-      <c r="B258" s="148"/>
-      <c r="C258" s="148"/>
-      <c r="D258" s="148"/>
+      <c r="B258" s="147"/>
+      <c r="C258" s="147"/>
+      <c r="D258" s="147"/>
       <c r="E258" s="70"/>
     </row>
     <row r="259" spans="2:5">
-      <c r="B259" s="148"/>
-      <c r="C259" s="148"/>
-      <c r="D259" s="148"/>
+      <c r="B259" s="147"/>
+      <c r="C259" s="147"/>
+      <c r="D259" s="147"/>
       <c r="E259" s="70"/>
     </row>
     <row r="260" spans="2:5">
-      <c r="B260" s="148"/>
-      <c r="C260" s="148"/>
-      <c r="D260" s="148"/>
+      <c r="B260" s="147"/>
+      <c r="C260" s="147"/>
+      <c r="D260" s="147"/>
       <c r="E260" s="70"/>
     </row>
     <row r="261" spans="2:5">
-      <c r="B261" s="148"/>
-      <c r="C261" s="148"/>
-      <c r="D261" s="148"/>
+      <c r="B261" s="147"/>
+      <c r="C261" s="147"/>
+      <c r="D261" s="147"/>
       <c r="E261" s="70"/>
     </row>
     <row r="262" spans="2:5">
-      <c r="B262" s="148"/>
-      <c r="C262" s="148"/>
-      <c r="D262" s="148"/>
+      <c r="B262" s="147"/>
+      <c r="C262" s="147"/>
+      <c r="D262" s="147"/>
       <c r="E262" s="70"/>
     </row>
     <row r="263" spans="2:5">
-      <c r="B263" s="148"/>
-      <c r="C263" s="148"/>
-      <c r="D263" s="148"/>
+      <c r="B263" s="147"/>
+      <c r="C263" s="147"/>
+      <c r="D263" s="147"/>
       <c r="E263" s="70"/>
     </row>
     <row r="264" spans="2:5">
-      <c r="B264" s="148"/>
-      <c r="C264" s="148"/>
-      <c r="D264" s="148"/>
+      <c r="B264" s="147"/>
+      <c r="C264" s="147"/>
+      <c r="D264" s="147"/>
       <c r="E264" s="70"/>
     </row>
     <row r="265" spans="2:5">
-      <c r="B265" s="148"/>
-      <c r="C265" s="148"/>
-      <c r="D265" s="148"/>
+      <c r="B265" s="147"/>
+      <c r="C265" s="147"/>
+      <c r="D265" s="147"/>
       <c r="E265" s="70"/>
     </row>
     <row r="266" spans="2:5">
-      <c r="B266" s="148"/>
-      <c r="C266" s="148"/>
-      <c r="D266" s="148"/>
+      <c r="B266" s="147"/>
+      <c r="C266" s="147"/>
+      <c r="D266" s="147"/>
       <c r="E266" s="70"/>
     </row>
     <row r="267" spans="2:5">
-      <c r="B267" s="148"/>
-      <c r="C267" s="148"/>
-      <c r="D267" s="148"/>
+      <c r="B267" s="147"/>
+      <c r="C267" s="147"/>
+      <c r="D267" s="147"/>
       <c r="E267" s="70"/>
     </row>
     <row r="268" spans="2:5">
-      <c r="B268" s="148"/>
-      <c r="C268" s="148"/>
-      <c r="D268" s="148"/>
+      <c r="B268" s="147"/>
+      <c r="C268" s="147"/>
+      <c r="D268" s="147"/>
       <c r="E268" s="70"/>
     </row>
     <row r="269" spans="2:5">
-      <c r="B269" s="148"/>
-      <c r="C269" s="148"/>
-      <c r="D269" s="148"/>
+      <c r="B269" s="147"/>
+      <c r="C269" s="147"/>
+      <c r="D269" s="147"/>
       <c r="E269" s="70"/>
     </row>
     <row r="270" spans="2:5">
-      <c r="B270" s="148"/>
-      <c r="C270" s="148"/>
-      <c r="D270" s="148"/>
+      <c r="B270" s="147"/>
+      <c r="C270" s="147"/>
+      <c r="D270" s="147"/>
       <c r="E270" s="70"/>
     </row>
     <row r="271" spans="2:5">
-      <c r="B271" s="148"/>
-      <c r="C271" s="148"/>
-      <c r="D271" s="148"/>
+      <c r="B271" s="147"/>
+      <c r="C271" s="147"/>
+      <c r="D271" s="147"/>
       <c r="E271" s="70"/>
     </row>
     <row r="272" spans="2:5">
-      <c r="B272" s="148"/>
-      <c r="C272" s="148"/>
-      <c r="D272" s="148"/>
+      <c r="B272" s="147"/>
+      <c r="C272" s="147"/>
+      <c r="D272" s="147"/>
       <c r="E272" s="70"/>
     </row>
     <row r="273" spans="2:5">
-      <c r="B273" s="148"/>
-      <c r="C273" s="148"/>
-      <c r="D273" s="148"/>
+      <c r="B273" s="147"/>
+      <c r="C273" s="147"/>
+      <c r="D273" s="147"/>
       <c r="E273" s="70"/>
     </row>
     <row r="274" spans="2:5">
-      <c r="B274" s="148"/>
-      <c r="C274" s="148"/>
-      <c r="D274" s="148"/>
+      <c r="B274" s="147"/>
+      <c r="C274" s="147"/>
+      <c r="D274" s="147"/>
       <c r="E274" s="70"/>
     </row>
     <row r="275" spans="2:5">
-      <c r="B275" s="148"/>
-      <c r="C275" s="148"/>
-      <c r="D275" s="148"/>
+      <c r="B275" s="147"/>
+      <c r="C275" s="147"/>
+      <c r="D275" s="147"/>
       <c r="E275" s="70"/>
     </row>
     <row r="276" spans="2:5">
-      <c r="B276" s="148"/>
-      <c r="C276" s="148"/>
-      <c r="D276" s="148"/>
+      <c r="B276" s="147"/>
+      <c r="C276" s="147"/>
+      <c r="D276" s="147"/>
       <c r="E276" s="70"/>
     </row>
     <row r="277" spans="2:5">
-      <c r="B277" s="148"/>
-      <c r="C277" s="148"/>
-      <c r="D277" s="148"/>
+      <c r="B277" s="147"/>
+      <c r="C277" s="147"/>
+      <c r="D277" s="147"/>
       <c r="E277" s="70"/>
     </row>
     <row r="278" spans="2:5">
-      <c r="B278" s="148"/>
-      <c r="C278" s="148"/>
-      <c r="D278" s="148"/>
+      <c r="B278" s="147"/>
+      <c r="C278" s="147"/>
+      <c r="D278" s="147"/>
       <c r="E278" s="70"/>
     </row>
     <row r="279" spans="2:5">
-      <c r="B279" s="148"/>
-      <c r="C279" s="148"/>
-      <c r="D279" s="148"/>
+      <c r="B279" s="147"/>
+      <c r="C279" s="147"/>
+      <c r="D279" s="147"/>
       <c r="E279" s="70"/>
     </row>
     <row r="280" spans="2:5">
-      <c r="B280" s="148"/>
-      <c r="C280" s="148"/>
-      <c r="D280" s="148"/>
+      <c r="B280" s="147"/>
+      <c r="C280" s="147"/>
+      <c r="D280" s="147"/>
       <c r="E280" s="70"/>
     </row>
     <row r="281" spans="2:5">
-      <c r="B281" s="148"/>
-      <c r="C281" s="148"/>
-      <c r="D281" s="148"/>
+      <c r="B281" s="147"/>
+      <c r="C281" s="147"/>
+      <c r="D281" s="147"/>
       <c r="E281" s="70"/>
     </row>
     <row r="282" spans="2:5">
-      <c r="B282" s="148"/>
-      <c r="C282" s="148"/>
-      <c r="D282" s="148"/>
+      <c r="B282" s="147"/>
+      <c r="C282" s="147"/>
+      <c r="D282" s="147"/>
       <c r="E282" s="70"/>
     </row>
     <row r="283" spans="2:5">
-      <c r="B283" s="148"/>
-      <c r="C283" s="148"/>
-      <c r="D283" s="148"/>
+      <c r="B283" s="147"/>
+      <c r="C283" s="147"/>
+      <c r="D283" s="147"/>
       <c r="E283" s="70"/>
     </row>
     <row r="284" spans="2:5">
-      <c r="B284" s="148"/>
-      <c r="C284" s="148"/>
-      <c r="D284" s="148"/>
+      <c r="B284" s="147"/>
+      <c r="C284" s="147"/>
+      <c r="D284" s="147"/>
       <c r="E284" s="70"/>
     </row>
     <row r="285" spans="2:5">
-      <c r="B285" s="148"/>
-      <c r="C285" s="148"/>
-      <c r="D285" s="148"/>
+      <c r="B285" s="147"/>
+      <c r="C285" s="147"/>
+      <c r="D285" s="147"/>
       <c r="E285" s="70"/>
     </row>
     <row r="286" spans="2:5">
-      <c r="B286" s="148"/>
-      <c r="C286" s="148"/>
-      <c r="D286" s="148"/>
+      <c r="B286" s="147"/>
+      <c r="C286" s="147"/>
+      <c r="D286" s="147"/>
       <c r="E286" s="70"/>
     </row>
     <row r="287" spans="2:5">
-      <c r="B287" s="148"/>
-      <c r="C287" s="148"/>
-      <c r="D287" s="148"/>
+      <c r="B287" s="147"/>
+      <c r="C287" s="147"/>
+      <c r="D287" s="147"/>
       <c r="E287" s="70"/>
     </row>
     <row r="288" spans="2:5">
-      <c r="B288" s="148"/>
-      <c r="C288" s="148"/>
-      <c r="D288" s="148"/>
+      <c r="B288" s="147"/>
+      <c r="C288" s="147"/>
+      <c r="D288" s="147"/>
       <c r="E288" s="70"/>
     </row>
     <row r="289" spans="2:5">
-      <c r="B289" s="148"/>
-      <c r="C289" s="148"/>
-      <c r="D289" s="148"/>
+      <c r="B289" s="147"/>
+      <c r="C289" s="147"/>
+      <c r="D289" s="147"/>
       <c r="E289" s="70"/>
     </row>
     <row r="290" spans="2:5">
-      <c r="B290" s="148"/>
-      <c r="C290" s="148"/>
-      <c r="D290" s="148"/>
+      <c r="B290" s="147"/>
+      <c r="C290" s="147"/>
+      <c r="D290" s="147"/>
       <c r="E290" s="70"/>
     </row>
     <row r="291" spans="2:5">
-      <c r="B291" s="148"/>
-      <c r="C291" s="148"/>
-      <c r="D291" s="148"/>
+      <c r="B291" s="147"/>
+      <c r="C291" s="147"/>
+      <c r="D291" s="147"/>
       <c r="E291" s="70"/>
     </row>
     <row r="292" spans="2:5">
-      <c r="B292" s="148"/>
-      <c r="C292" s="148"/>
-      <c r="D292" s="148"/>
+      <c r="B292" s="147"/>
+      <c r="C292" s="147"/>
+      <c r="D292" s="147"/>
       <c r="E292" s="70"/>
     </row>
     <row r="293" spans="2:5">
-      <c r="B293" s="148"/>
-      <c r="C293" s="148"/>
-      <c r="D293" s="148"/>
+      <c r="B293" s="147"/>
+      <c r="C293" s="147"/>
+      <c r="D293" s="147"/>
       <c r="E293" s="70"/>
     </row>
     <row r="294" spans="2:5">
-      <c r="B294" s="148"/>
-      <c r="C294" s="148"/>
-      <c r="D294" s="148"/>
+      <c r="B294" s="147"/>
+      <c r="C294" s="147"/>
+      <c r="D294" s="147"/>
       <c r="E294" s="70"/>
     </row>
     <row r="295" spans="2:5">
-      <c r="B295" s="148"/>
-      <c r="C295" s="148"/>
-      <c r="D295" s="148"/>
+      <c r="B295" s="147"/>
+      <c r="C295" s="147"/>
+      <c r="D295" s="147"/>
       <c r="E295" s="70"/>
     </row>
     <row r="296" spans="2:5">
-      <c r="B296" s="148"/>
-      <c r="C296" s="148"/>
-      <c r="D296" s="148"/>
+      <c r="B296" s="147"/>
+      <c r="C296" s="147"/>
+      <c r="D296" s="147"/>
       <c r="E296" s="70"/>
     </row>
     <row r="297" spans="2:5">
-      <c r="B297" s="148"/>
-      <c r="C297" s="148"/>
-      <c r="D297" s="148"/>
+      <c r="B297" s="147"/>
+      <c r="C297" s="147"/>
+      <c r="D297" s="147"/>
       <c r="E297" s="70"/>
     </row>
     <row r="298" spans="2:5">
-      <c r="B298" s="148"/>
-      <c r="C298" s="148"/>
-      <c r="D298" s="148"/>
+      <c r="B298" s="147"/>
+      <c r="C298" s="147"/>
+      <c r="D298" s="147"/>
       <c r="E298" s="70"/>
     </row>
     <row r="299" spans="2:5">
-      <c r="B299" s="148"/>
-      <c r="C299" s="148"/>
-      <c r="D299" s="148"/>
+      <c r="B299" s="147"/>
+      <c r="C299" s="147"/>
+      <c r="D299" s="147"/>
       <c r="E299" s="70"/>
     </row>
     <row r="300" spans="2:5">
-      <c r="B300" s="148"/>
-      <c r="C300" s="148"/>
-      <c r="D300" s="148"/>
+      <c r="B300" s="147"/>
+      <c r="C300" s="147"/>
+      <c r="D300" s="147"/>
       <c r="E300" s="70"/>
     </row>
     <row r="301" spans="2:5">
-      <c r="B301" s="148"/>
-      <c r="C301" s="148"/>
-      <c r="D301" s="148"/>
+      <c r="B301" s="147"/>
+      <c r="C301" s="147"/>
+      <c r="D301" s="147"/>
       <c r="E301" s="70"/>
     </row>
     <row r="302" spans="2:5">
-      <c r="B302" s="148"/>
-      <c r="C302" s="148"/>
-      <c r="D302" s="148"/>
+      <c r="B302" s="147"/>
+      <c r="C302" s="147"/>
+      <c r="D302" s="147"/>
       <c r="E302" s="70"/>
     </row>
     <row r="303" spans="2:5">
-      <c r="B303" s="148"/>
-      <c r="C303" s="148"/>
-      <c r="D303" s="148"/>
+      <c r="B303" s="147"/>
+      <c r="C303" s="147"/>
+      <c r="D303" s="147"/>
       <c r="E303" s="70"/>
     </row>
     <row r="304" spans="2:5">
-      <c r="B304" s="148"/>
-      <c r="C304" s="148"/>
-      <c r="D304" s="148"/>
+      <c r="B304" s="147"/>
+      <c r="C304" s="147"/>
+      <c r="D304" s="147"/>
       <c r="E304" s="70"/>
     </row>
     <row r="305" spans="2:5">
-      <c r="B305" s="148"/>
-      <c r="C305" s="148"/>
-      <c r="D305" s="148"/>
+      <c r="B305" s="147"/>
+      <c r="C305" s="147"/>
+      <c r="D305" s="147"/>
       <c r="E305" s="70"/>
     </row>
     <row r="306" spans="2:5">
-      <c r="B306" s="148"/>
-      <c r="C306" s="148"/>
-      <c r="D306" s="148"/>
+      <c r="B306" s="147"/>
+      <c r="C306" s="147"/>
+      <c r="D306" s="147"/>
       <c r="E306" s="70"/>
     </row>
     <row r="307" spans="2:5">
-      <c r="B307" s="148"/>
-      <c r="C307" s="148"/>
-      <c r="D307" s="148"/>
+      <c r="B307" s="147"/>
+      <c r="C307" s="147"/>
+      <c r="D307" s="147"/>
       <c r="E307" s="70"/>
     </row>
     <row r="308" spans="2:5">
-      <c r="B308" s="148"/>
-      <c r="C308" s="148"/>
-      <c r="D308" s="148"/>
+      <c r="B308" s="147"/>
+      <c r="C308" s="147"/>
+      <c r="D308" s="147"/>
       <c r="E308" s="70"/>
     </row>
     <row r="309" spans="2:5">
-      <c r="B309" s="148"/>
-      <c r="C309" s="148"/>
-      <c r="D309" s="148"/>
+      <c r="B309" s="147"/>
+      <c r="C309" s="147"/>
+      <c r="D309" s="147"/>
       <c r="E309" s="70"/>
     </row>
     <row r="310" spans="2:5">
-      <c r="B310" s="148"/>
-      <c r="C310" s="148"/>
-      <c r="D310" s="148"/>
+      <c r="B310" s="147"/>
+      <c r="C310" s="147"/>
+      <c r="D310" s="147"/>
       <c r="E310" s="70"/>
     </row>
     <row r="311" spans="2:5">
-      <c r="B311" s="148"/>
-      <c r="C311" s="148"/>
-      <c r="D311" s="148"/>
+      <c r="B311" s="147"/>
+      <c r="C311" s="147"/>
+      <c r="D311" s="147"/>
       <c r="E311" s="70"/>
     </row>
     <row r="312" spans="2:5">
-      <c r="B312" s="148"/>
-      <c r="C312" s="148"/>
-      <c r="D312" s="148"/>
+      <c r="B312" s="147"/>
+      <c r="C312" s="147"/>
+      <c r="D312" s="147"/>
       <c r="E312" s="70"/>
     </row>
     <row r="313" spans="2:5">
-      <c r="B313" s="148"/>
-      <c r="C313" s="148"/>
-      <c r="D313" s="148"/>
+      <c r="B313" s="147"/>
+      <c r="C313" s="147"/>
+      <c r="D313" s="147"/>
       <c r="E313" s="70"/>
     </row>
     <row r="314" spans="2:5">
-      <c r="B314" s="148"/>
-      <c r="C314" s="148"/>
-      <c r="D314" s="148"/>
+      <c r="B314" s="147"/>
+      <c r="C314" s="147"/>
+      <c r="D314" s="147"/>
       <c r="E314" s="70"/>
     </row>
     <row r="315" spans="2:5">
-      <c r="B315" s="148"/>
-      <c r="C315" s="148"/>
-      <c r="D315" s="148"/>
+      <c r="B315" s="147"/>
+      <c r="C315" s="147"/>
+      <c r="D315" s="147"/>
       <c r="E315" s="70"/>
     </row>
     <row r="316" spans="2:5">
-      <c r="B316" s="148"/>
-      <c r="C316" s="148"/>
-      <c r="D316" s="148"/>
+      <c r="B316" s="147"/>
+      <c r="C316" s="147"/>
+      <c r="D316" s="147"/>
       <c r="E316" s="70"/>
     </row>
     <row r="317" spans="2:5">
-      <c r="B317" s="148"/>
-      <c r="C317" s="148"/>
-      <c r="D317" s="148"/>
+      <c r="B317" s="147"/>
+      <c r="C317" s="147"/>
+      <c r="D317" s="147"/>
       <c r="E317" s="70"/>
     </row>
     <row r="318" spans="2:5">
-      <c r="B318" s="148"/>
-      <c r="C318" s="148"/>
-      <c r="D318" s="148"/>
+      <c r="B318" s="147"/>
+      <c r="C318" s="147"/>
+      <c r="D318" s="147"/>
       <c r="E318" s="70"/>
     </row>
     <row r="319" spans="2:5">
-      <c r="B319" s="148"/>
-      <c r="C319" s="148"/>
-      <c r="D319" s="148"/>
+      <c r="B319" s="147"/>
+      <c r="C319" s="147"/>
+      <c r="D319" s="147"/>
       <c r="E319" s="70"/>
     </row>
     <row r="320" spans="2:5">
-      <c r="B320" s="148"/>
-      <c r="C320" s="148"/>
-      <c r="D320" s="148"/>
+      <c r="B320" s="147"/>
+      <c r="C320" s="147"/>
+      <c r="D320" s="147"/>
       <c r="E320" s="70"/>
     </row>
     <row r="321" spans="2:5">
-      <c r="B321" s="148"/>
-      <c r="C321" s="148"/>
-      <c r="D321" s="148"/>
+      <c r="B321" s="147"/>
+      <c r="C321" s="147"/>
+      <c r="D321" s="147"/>
       <c r="E321" s="70"/>
     </row>
     <row r="322" spans="2:5">
-      <c r="B322" s="148"/>
-      <c r="C322" s="148"/>
-      <c r="D322" s="148"/>
+      <c r="B322" s="147"/>
+      <c r="C322" s="147"/>
+      <c r="D322" s="147"/>
       <c r="E322" s="70"/>
     </row>
     <row r="323" spans="2:5">
-      <c r="B323" s="148"/>
-      <c r="C323" s="148"/>
-      <c r="D323" s="148"/>
+      <c r="B323" s="147"/>
+      <c r="C323" s="147"/>
+      <c r="D323" s="147"/>
       <c r="E323" s="70"/>
     </row>
     <row r="324" spans="2:5">
-      <c r="B324" s="148"/>
-      <c r="C324" s="148"/>
-      <c r="D324" s="148"/>
+      <c r="B324" s="147"/>
+      <c r="C324" s="147"/>
+      <c r="D324" s="147"/>
       <c r="E324" s="70"/>
     </row>
     <row r="325" spans="2:5">
-      <c r="B325" s="148"/>
-      <c r="C325" s="148"/>
-      <c r="D325" s="148"/>
+      <c r="B325" s="147"/>
+      <c r="C325" s="147"/>
+      <c r="D325" s="147"/>
       <c r="E325" s="70"/>
     </row>
     <row r="326" spans="2:5">
-      <c r="B326" s="148"/>
-      <c r="C326" s="148"/>
-      <c r="D326" s="148"/>
+      <c r="B326" s="147"/>
+      <c r="C326" s="147"/>
+      <c r="D326" s="147"/>
       <c r="E326" s="70"/>
     </row>
     <row r="327" spans="2:5">
-      <c r="B327" s="148"/>
-      <c r="C327" s="148"/>
-      <c r="D327" s="148"/>
+      <c r="B327" s="147"/>
+      <c r="C327" s="147"/>
+      <c r="D327" s="147"/>
       <c r="E327" s="70"/>
     </row>
     <row r="328" spans="2:5">
-      <c r="B328" s="148"/>
-      <c r="C328" s="148"/>
-      <c r="D328" s="148"/>
+      <c r="B328" s="147"/>
+      <c r="C328" s="147"/>
+      <c r="D328" s="147"/>
       <c r="E328" s="70"/>
     </row>
     <row r="329" spans="2:5">
-      <c r="B329" s="148"/>
-      <c r="C329" s="148"/>
-      <c r="D329" s="148"/>
+      <c r="B329" s="147"/>
+      <c r="C329" s="147"/>
+      <c r="D329" s="147"/>
       <c r="E329" s="70"/>
     </row>
     <row r="330" spans="2:5">
-      <c r="B330" s="148"/>
-      <c r="C330" s="148"/>
-      <c r="D330" s="148"/>
+      <c r="B330" s="147"/>
+      <c r="C330" s="147"/>
+      <c r="D330" s="147"/>
       <c r="E330" s="70"/>
     </row>
     <row r="331" spans="2:5">
-      <c r="B331" s="148"/>
-      <c r="C331" s="148"/>
-      <c r="D331" s="148"/>
+      <c r="B331" s="147"/>
+      <c r="C331" s="147"/>
+      <c r="D331" s="147"/>
       <c r="E331" s="70"/>
     </row>
     <row r="332" spans="2:5">
-      <c r="B332" s="148"/>
-      <c r="C332" s="148"/>
-      <c r="D332" s="148"/>
+      <c r="B332" s="147"/>
+      <c r="C332" s="147"/>
+      <c r="D332" s="147"/>
       <c r="E332" s="70"/>
     </row>
     <row r="333" spans="2:5">
-      <c r="B333" s="148"/>
-      <c r="C333" s="148"/>
-      <c r="D333" s="148"/>
+      <c r="B333" s="147"/>
+      <c r="C333" s="147"/>
+      <c r="D333" s="147"/>
       <c r="E333" s="70"/>
     </row>
     <row r="334" spans="2:5">
-      <c r="B334" s="148"/>
-      <c r="C334" s="148"/>
-      <c r="D334" s="148"/>
+      <c r="B334" s="147"/>
+      <c r="C334" s="147"/>
+      <c r="D334" s="147"/>
       <c r="E334" s="70"/>
     </row>
     <row r="335" spans="2:5">
-      <c r="B335" s="148"/>
-      <c r="C335" s="148"/>
-      <c r="D335" s="148"/>
+      <c r="B335" s="147"/>
+      <c r="C335" s="147"/>
+      <c r="D335" s="147"/>
       <c r="E335" s="70"/>
     </row>
     <row r="336" spans="2:5">
-      <c r="B336" s="148"/>
-      <c r="C336" s="148"/>
-      <c r="D336" s="148"/>
+      <c r="B336" s="147"/>
+      <c r="C336" s="147"/>
+      <c r="D336" s="147"/>
       <c r="E336" s="70"/>
     </row>
     <row r="337" spans="2:5">
-      <c r="B337" s="148"/>
-      <c r="C337" s="148"/>
-      <c r="D337" s="148"/>
+      <c r="B337" s="147"/>
+      <c r="C337" s="147"/>
+      <c r="D337" s="147"/>
       <c r="E337" s="70"/>
     </row>
     <row r="338" spans="2:5">
-      <c r="B338" s="148"/>
-      <c r="C338" s="148"/>
-      <c r="D338" s="148"/>
+      <c r="B338" s="147"/>
+      <c r="C338" s="147"/>
+      <c r="D338" s="147"/>
       <c r="E338" s="70"/>
     </row>
     <row r="339" spans="2:5">
-      <c r="B339" s="148"/>
-      <c r="C339" s="148"/>
-      <c r="D339" s="148"/>
+      <c r="B339" s="147"/>
+      <c r="C339" s="147"/>
+      <c r="D339" s="147"/>
       <c r="E339" s="70"/>
     </row>
     <row r="340" spans="2:5">
-      <c r="B340" s="148"/>
-      <c r="C340" s="148"/>
-      <c r="D340" s="148"/>
+      <c r="B340" s="147"/>
+      <c r="C340" s="147"/>
+      <c r="D340" s="147"/>
       <c r="E340" s="70"/>
     </row>
     <row r="341" spans="2:5">
-      <c r="B341" s="148"/>
-      <c r="C341" s="148"/>
-      <c r="D341" s="148"/>
+      <c r="B341" s="147"/>
+      <c r="C341" s="147"/>
+      <c r="D341" s="147"/>
       <c r="E341" s="70"/>
     </row>
     <row r="342" spans="2:5">
-      <c r="B342" s="148"/>
-      <c r="C342" s="148"/>
-      <c r="D342" s="148"/>
+      <c r="B342" s="147"/>
+      <c r="C342" s="147"/>
+      <c r="D342" s="147"/>
       <c r="E342" s="70"/>
     </row>
     <row r="343" spans="2:5">
-      <c r="B343" s="148"/>
-      <c r="C343" s="148"/>
-      <c r="D343" s="148"/>
+      <c r="B343" s="147"/>
+      <c r="C343" s="147"/>
+      <c r="D343" s="147"/>
       <c r="E343" s="70"/>
     </row>
     <row r="344" spans="2:5">
-      <c r="B344" s="148"/>
-      <c r="C344" s="148"/>
-      <c r="D344" s="148"/>
+      <c r="B344" s="147"/>
+      <c r="C344" s="147"/>
+      <c r="D344" s="147"/>
       <c r="E344" s="70"/>
     </row>
     <row r="345" spans="2:5">
-      <c r="B345" s="148"/>
-      <c r="C345" s="148"/>
-      <c r="D345" s="148"/>
+      <c r="B345" s="147"/>
+      <c r="C345" s="147"/>
+      <c r="D345" s="147"/>
       <c r="E345" s="70"/>
     </row>
     <row r="346" spans="2:5">
-      <c r="B346" s="148"/>
-      <c r="C346" s="148"/>
-      <c r="D346" s="148"/>
+      <c r="B346" s="147"/>
+      <c r="C346" s="147"/>
+      <c r="D346" s="147"/>
       <c r="E346" s="70"/>
     </row>
     <row r="347" spans="2:5">
-      <c r="B347" s="148"/>
-      <c r="C347" s="148"/>
-      <c r="D347" s="148"/>
+      <c r="B347" s="147"/>
+      <c r="C347" s="147"/>
+      <c r="D347" s="147"/>
       <c r="E347" s="70"/>
     </row>
     <row r="348" spans="2:5">
-      <c r="B348" s="148"/>
-      <c r="C348" s="148"/>
-      <c r="D348" s="148"/>
+      <c r="B348" s="147"/>
+      <c r="C348" s="147"/>
+      <c r="D348" s="147"/>
       <c r="E348" s="70"/>
     </row>
     <row r="349" spans="2:5">
-      <c r="B349" s="148"/>
-      <c r="C349" s="148"/>
-      <c r="D349" s="148"/>
+      <c r="B349" s="147"/>
+      <c r="C349" s="147"/>
+      <c r="D349" s="147"/>
       <c r="E349" s="70"/>
     </row>
     <row r="350" spans="2:5">
-      <c r="B350" s="148"/>
-      <c r="C350" s="148"/>
-      <c r="D350" s="148"/>
+      <c r="B350" s="147"/>
+      <c r="C350" s="147"/>
+      <c r="D350" s="147"/>
       <c r="E350" s="70"/>
     </row>
     <row r="351" spans="2:5">
-      <c r="B351" s="148"/>
-      <c r="C351" s="148"/>
-      <c r="D351" s="148"/>
+      <c r="B351" s="147"/>
+      <c r="C351" s="147"/>
+      <c r="D351" s="147"/>
       <c r="E351" s="70"/>
     </row>
     <row r="352" spans="2:5">
-      <c r="B352" s="148"/>
-      <c r="C352" s="148"/>
-      <c r="D352" s="148"/>
+      <c r="B352" s="147"/>
+      <c r="C352" s="147"/>
+      <c r="D352" s="147"/>
       <c r="E352" s="70"/>
     </row>
     <row r="353" spans="2:5">
-      <c r="B353" s="148"/>
-      <c r="C353" s="148"/>
-      <c r="D353" s="148"/>
+      <c r="B353" s="147"/>
+      <c r="C353" s="147"/>
+      <c r="D353" s="147"/>
       <c r="E353" s="70"/>
     </row>
     <row r="354" spans="2:5">
-      <c r="B354" s="148"/>
-      <c r="C354" s="148"/>
-      <c r="D354" s="148"/>
+      <c r="B354" s="147"/>
+      <c r="C354" s="147"/>
+      <c r="D354" s="147"/>
       <c r="E354" s="70"/>
     </row>
     <row r="355" spans="2:5">
-      <c r="B355" s="148"/>
-      <c r="C355" s="148"/>
-      <c r="D355" s="148"/>
+      <c r="B355" s="147"/>
+      <c r="C355" s="147"/>
+      <c r="D355" s="147"/>
       <c r="E355" s="70"/>
     </row>
     <row r="356" spans="2:5">
-      <c r="B356" s="148"/>
-      <c r="C356" s="148"/>
-      <c r="D356" s="148"/>
+      <c r="B356" s="147"/>
+      <c r="C356" s="147"/>
+      <c r="D356" s="147"/>
       <c r="E356" s="70"/>
     </row>
     <row r="357" spans="2:5">
-      <c r="B357" s="148"/>
-      <c r="C357" s="148"/>
-      <c r="D357" s="148"/>
+      <c r="B357" s="147"/>
+      <c r="C357" s="147"/>
+      <c r="D357" s="147"/>
       <c r="E357" s="70"/>
     </row>
     <row r="358" spans="2:5">
-      <c r="B358" s="148"/>
-      <c r="C358" s="148"/>
-      <c r="D358" s="148"/>
+      <c r="B358" s="147"/>
+      <c r="C358" s="147"/>
+      <c r="D358" s="147"/>
       <c r="E358" s="70"/>
     </row>
     <row r="359" spans="2:5">
-      <c r="B359" s="148"/>
-      <c r="C359" s="148"/>
-      <c r="D359" s="148"/>
+      <c r="B359" s="147"/>
+      <c r="C359" s="147"/>
+      <c r="D359" s="147"/>
       <c r="E359" s="70"/>
     </row>
     <row r="360" spans="2:5">
-      <c r="B360" s="148"/>
-      <c r="C360" s="148"/>
-      <c r="D360" s="148"/>
+      <c r="B360" s="147"/>
+      <c r="C360" s="147"/>
+      <c r="D360" s="147"/>
       <c r="E360" s="70"/>
     </row>
     <row r="361" spans="2:5">
-      <c r="B361" s="148"/>
-      <c r="C361" s="148"/>
-      <c r="D361" s="148"/>
+      <c r="B361" s="147"/>
+      <c r="C361" s="147"/>
+      <c r="D361" s="147"/>
       <c r="E361" s="70"/>
     </row>
     <row r="362" spans="2:5">
-      <c r="B362" s="148"/>
-      <c r="C362" s="148"/>
-      <c r="D362" s="148"/>
+      <c r="B362" s="147"/>
+      <c r="C362" s="147"/>
+      <c r="D362" s="147"/>
       <c r="E362" s="70"/>
     </row>
     <row r="363" spans="2:5">
-      <c r="B363" s="148"/>
-      <c r="C363" s="148"/>
-      <c r="D363" s="148"/>
+      <c r="B363" s="147"/>
+      <c r="C363" s="147"/>
+      <c r="D363" s="147"/>
       <c r="E363" s="70"/>
     </row>
     <row r="364" spans="2:5">
-      <c r="B364" s="148"/>
-      <c r="C364" s="148"/>
-      <c r="D364" s="148"/>
+      <c r="B364" s="147"/>
+      <c r="C364" s="147"/>
+      <c r="D364" s="147"/>
       <c r="E364" s="70"/>
     </row>
     <row r="365" spans="2:5">
-      <c r="B365" s="148"/>
-      <c r="C365" s="148"/>
-      <c r="D365" s="148"/>
+      <c r="B365" s="147"/>
+      <c r="C365" s="147"/>
+      <c r="D365" s="147"/>
       <c r="E365" s="70"/>
     </row>
     <row r="366" spans="2:5">
-      <c r="B366" s="148"/>
-      <c r="C366" s="148"/>
-      <c r="D366" s="148"/>
+      <c r="B366" s="147"/>
+      <c r="C366" s="147"/>
+      <c r="D366" s="147"/>
       <c r="E366" s="70"/>
     </row>
     <row r="367" spans="2:5">
-      <c r="B367" s="148"/>
-      <c r="C367" s="148"/>
-      <c r="D367" s="148"/>
+      <c r="B367" s="147"/>
+      <c r="C367" s="147"/>
+      <c r="D367" s="147"/>
       <c r="E367" s="70"/>
     </row>
     <row r="368" spans="2:5">
-      <c r="B368" s="148"/>
-      <c r="C368" s="148"/>
-      <c r="D368" s="148"/>
+      <c r="B368" s="147"/>
+      <c r="C368" s="147"/>
+      <c r="D368" s="147"/>
       <c r="E368" s="70"/>
     </row>
     <row r="369" spans="2:5">
-      <c r="B369" s="148"/>
-      <c r="C369" s="148"/>
-      <c r="D369" s="148"/>
+      <c r="B369" s="147"/>
+      <c r="C369" s="147"/>
+      <c r="D369" s="147"/>
       <c r="E369" s="70"/>
     </row>
     <row r="370" spans="2:5">
-      <c r="B370" s="148"/>
-      <c r="C370" s="148"/>
-      <c r="D370" s="148"/>
+      <c r="B370" s="147"/>
+      <c r="C370" s="147"/>
+      <c r="D370" s="147"/>
       <c r="E370" s="70"/>
     </row>
     <row r="371" spans="2:5">
-      <c r="B371" s="148"/>
-      <c r="C371" s="148"/>
-      <c r="D371" s="148"/>
+      <c r="B371" s="147"/>
+      <c r="C371" s="147"/>
+      <c r="D371" s="147"/>
       <c r="E371" s="70"/>
     </row>
     <row r="372" spans="2:5">
-      <c r="B372" s="148"/>
-      <c r="C372" s="148"/>
-      <c r="D372" s="148"/>
+      <c r="B372" s="147"/>
+      <c r="C372" s="147"/>
+      <c r="D372" s="147"/>
       <c r="E372" s="70"/>
     </row>
     <row r="373" spans="2:5">
-      <c r="B373" s="148"/>
-      <c r="C373" s="148"/>
-      <c r="D373" s="148"/>
+      <c r="B373" s="147"/>
+      <c r="C373" s="147"/>
+      <c r="D373" s="147"/>
       <c r="E373" s="70"/>
     </row>
     <row r="374" spans="2:5">
-      <c r="B374" s="148"/>
-      <c r="C374" s="148"/>
-      <c r="D374" s="148"/>
+      <c r="B374" s="147"/>
+      <c r="C374" s="147"/>
+      <c r="D374" s="147"/>
       <c r="E374" s="70"/>
     </row>
     <row r="375" spans="2:5">
-      <c r="B375" s="148"/>
-      <c r="C375" s="148"/>
-      <c r="D375" s="148"/>
+      <c r="B375" s="147"/>
+      <c r="C375" s="147"/>
+      <c r="D375" s="147"/>
       <c r="E375" s="70"/>
     </row>
     <row r="376" spans="2:5">
-      <c r="B376" s="148"/>
-      <c r="C376" s="148"/>
-      <c r="D376" s="148"/>
+      <c r="B376" s="147"/>
+      <c r="C376" s="147"/>
+      <c r="D376" s="147"/>
       <c r="E376" s="70"/>
     </row>
     <row r="377" spans="2:5">
-      <c r="B377" s="148"/>
-      <c r="C377" s="148"/>
-      <c r="D377" s="148"/>
+      <c r="B377" s="147"/>
+      <c r="C377" s="147"/>
+      <c r="D377" s="147"/>
       <c r="E377" s="70"/>
     </row>
     <row r="378" spans="2:5">
-      <c r="B378" s="148"/>
-      <c r="C378" s="148"/>
-      <c r="D378" s="148"/>
+      <c r="B378" s="147"/>
+      <c r="C378" s="147"/>
+      <c r="D378" s="147"/>
       <c r="E378" s="70"/>
     </row>
     <row r="379" spans="2:5">
-      <c r="B379" s="148"/>
-      <c r="C379" s="148"/>
-      <c r="D379" s="148"/>
+      <c r="B379" s="147"/>
+      <c r="C379" s="147"/>
+      <c r="D379" s="147"/>
       <c r="E379" s="70"/>
     </row>
     <row r="380" spans="2:5">
-      <c r="B380" s="148"/>
-      <c r="C380" s="148"/>
-      <c r="D380" s="148"/>
+      <c r="B380" s="147"/>
+      <c r="C380" s="147"/>
+      <c r="D380" s="147"/>
       <c r="E380" s="70"/>
     </row>
     <row r="381" spans="2:5">
-      <c r="B381" s="148"/>
-      <c r="C381" s="148"/>
-      <c r="D381" s="148"/>
+      <c r="B381" s="147"/>
+      <c r="C381" s="147"/>
+      <c r="D381" s="147"/>
       <c r="E381" s="70"/>
     </row>
     <row r="382" spans="2:5">
-      <c r="B382" s="148"/>
-      <c r="C382" s="148"/>
-      <c r="D382" s="148"/>
+      <c r="B382" s="147"/>
+      <c r="C382" s="147"/>
+      <c r="D382" s="147"/>
       <c r="E382" s="70"/>
     </row>
     <row r="383" spans="2:5">
-      <c r="B383" s="148"/>
-      <c r="C383" s="148"/>
-      <c r="D383" s="148"/>
+      <c r="B383" s="147"/>
+      <c r="C383" s="147"/>
+      <c r="D383" s="147"/>
       <c r="E383" s="70"/>
     </row>
     <row r="384" spans="2:5">
-      <c r="B384" s="148"/>
-      <c r="C384" s="148"/>
-      <c r="D384" s="148"/>
+      <c r="B384" s="147"/>
+      <c r="C384" s="147"/>
+      <c r="D384" s="147"/>
       <c r="E384" s="70"/>
     </row>
     <row r="385" spans="2:5">
-      <c r="B385" s="148"/>
-      <c r="C385" s="148"/>
-      <c r="D385" s="148"/>
+      <c r="B385" s="147"/>
+      <c r="C385" s="147"/>
+      <c r="D385" s="147"/>
       <c r="E385" s="70"/>
     </row>
     <row r="386" spans="2:5">
-      <c r="B386" s="148"/>
-      <c r="C386" s="148"/>
-      <c r="D386" s="148"/>
+      <c r="B386" s="147"/>
+      <c r="C386" s="147"/>
+      <c r="D386" s="147"/>
       <c r="E386" s="70"/>
     </row>
     <row r="387" spans="2:5">
-      <c r="B387" s="148"/>
-      <c r="C387" s="148"/>
-      <c r="D387" s="148"/>
+      <c r="B387" s="147"/>
+      <c r="C387" s="147"/>
+      <c r="D387" s="147"/>
       <c r="E387" s="70"/>
     </row>
     <row r="388" spans="2:5">
-      <c r="B388" s="148"/>
-      <c r="C388" s="148"/>
-      <c r="D388" s="148"/>
+      <c r="B388" s="147"/>
+      <c r="C388" s="147"/>
+      <c r="D388" s="147"/>
       <c r="E388" s="70"/>
     </row>
     <row r="389" spans="2:5">
-      <c r="B389" s="148"/>
-      <c r="C389" s="148"/>
-      <c r="D389" s="148"/>
+      <c r="B389" s="147"/>
+      <c r="C389" s="147"/>
+      <c r="D389" s="147"/>
       <c r="E389" s="70"/>
     </row>
     <row r="390" spans="2:5">
-      <c r="B390" s="148"/>
-      <c r="C390" s="148"/>
-      <c r="D390" s="148"/>
+      <c r="B390" s="147"/>
+      <c r="C390" s="147"/>
+      <c r="D390" s="147"/>
       <c r="E390" s="70"/>
     </row>
     <row r="391" spans="2:5">
-      <c r="B391" s="148"/>
-      <c r="C391" s="148"/>
-      <c r="D391" s="148"/>
+      <c r="B391" s="147"/>
+      <c r="C391" s="147"/>
+      <c r="D391" s="147"/>
       <c r="E391" s="70"/>
     </row>
     <row r="392" spans="2:5">
-      <c r="B392" s="148"/>
-      <c r="C392" s="148"/>
-      <c r="D392" s="148"/>
+      <c r="B392" s="147"/>
+      <c r="C392" s="147"/>
+      <c r="D392" s="147"/>
       <c r="E392" s="70"/>
     </row>
     <row r="393" spans="2:5">
-      <c r="B393" s="148"/>
-      <c r="C393" s="148"/>
-      <c r="D393" s="148"/>
+      <c r="B393" s="147"/>
+      <c r="C393" s="147"/>
+      <c r="D393" s="147"/>
       <c r="E393" s="70"/>
     </row>
     <row r="394" spans="2:5">
-      <c r="B394" s="148"/>
-      <c r="C394" s="148"/>
-      <c r="D394" s="148"/>
+      <c r="B394" s="147"/>
+      <c r="C394" s="147"/>
+      <c r="D394" s="147"/>
       <c r="E394" s="70"/>
     </row>
     <row r="395" spans="2:5">
-      <c r="B395" s="148"/>
-      <c r="C395" s="148"/>
-      <c r="D395" s="148"/>
+      <c r="B395" s="147"/>
+      <c r="C395" s="147"/>
+      <c r="D395" s="147"/>
       <c r="E395" s="70"/>
     </row>
     <row r="396" spans="2:5">
-      <c r="B396" s="148"/>
-      <c r="C396" s="148"/>
-      <c r="D396" s="148"/>
+      <c r="B396" s="147"/>
+      <c r="C396" s="147"/>
+      <c r="D396" s="147"/>
       <c r="E396" s="70"/>
     </row>
     <row r="397" spans="2:5">
-      <c r="B397" s="148"/>
-      <c r="C397" s="148"/>
-      <c r="D397" s="148"/>
+      <c r="B397" s="147"/>
+      <c r="C397" s="147"/>
+      <c r="D397" s="147"/>
       <c r="E397" s="70"/>
     </row>
     <row r="398" spans="2:5">
-      <c r="B398" s="148"/>
-      <c r="C398" s="148"/>
-      <c r="D398" s="148"/>
+      <c r="B398" s="147"/>
+      <c r="C398" s="147"/>
+      <c r="D398" s="147"/>
       <c r="E398" s="70"/>
     </row>
     <row r="399" spans="2:5">
-      <c r="B399" s="148"/>
-      <c r="C399" s="148"/>
-      <c r="D399" s="148"/>
+      <c r="B399" s="147"/>
+      <c r="C399" s="147"/>
+      <c r="D399" s="147"/>
       <c r="E399" s="70"/>
     </row>
     <row r="400" spans="2:5">
-      <c r="B400" s="148"/>
-      <c r="C400" s="148"/>
-      <c r="D400" s="148"/>
+      <c r="B400" s="147"/>
+      <c r="C400" s="147"/>
+      <c r="D400" s="147"/>
       <c r="E400" s="70"/>
     </row>
     <row r="401" spans="2:5">
-      <c r="B401" s="148"/>
-      <c r="C401" s="148"/>
-      <c r="D401" s="148"/>
+      <c r="B401" s="147"/>
+      <c r="C401" s="147"/>
+      <c r="D401" s="147"/>
       <c r="E401" s="70"/>
     </row>
     <row r="402" spans="2:5">
-      <c r="B402" s="148"/>
-      <c r="C402" s="148"/>
-      <c r="D402" s="148"/>
+      <c r="B402" s="147"/>
+      <c r="C402" s="147"/>
+      <c r="D402" s="147"/>
       <c r="E402" s="70"/>
     </row>
     <row r="403" spans="2:5">
-      <c r="B403" s="148"/>
-      <c r="C403" s="148"/>
-      <c r="D403" s="148"/>
+      <c r="B403" s="147"/>
+      <c r="C403" s="147"/>
+      <c r="D403" s="147"/>
       <c r="E403" s="70"/>
     </row>
     <row r="404" spans="2:5">
-      <c r="B404" s="148"/>
-      <c r="C404" s="148"/>
-      <c r="D404" s="148"/>
+      <c r="B404" s="147"/>
+      <c r="C404" s="147"/>
+      <c r="D404" s="147"/>
       <c r="E404" s="70"/>
     </row>
     <row r="405" spans="2:5">
-      <c r="B405" s="148"/>
-      <c r="C405" s="148"/>
-      <c r="D405" s="148"/>
+      <c r="B405" s="147"/>
+      <c r="C405" s="147"/>
+      <c r="D405" s="147"/>
       <c r="E405" s="70"/>
     </row>
     <row r="406" spans="2:5">
-      <c r="B406" s="148"/>
-      <c r="C406" s="148"/>
-      <c r="D406" s="148"/>
+      <c r="B406" s="147"/>
+      <c r="C406" s="147"/>
+      <c r="D406" s="147"/>
       <c r="E406" s="70"/>
     </row>
     <row r="407" spans="2:5">
-      <c r="B407" s="148"/>
-      <c r="C407" s="148"/>
-      <c r="D407" s="148"/>
+      <c r="B407" s="147"/>
+      <c r="C407" s="147"/>
+      <c r="D407" s="147"/>
       <c r="E407" s="70"/>
     </row>
     <row r="408" spans="2:5">
-      <c r="B408" s="148"/>
-      <c r="C408" s="148"/>
-      <c r="D408" s="148"/>
+      <c r="B408" s="147"/>
+      <c r="C408" s="147"/>
+      <c r="D408" s="147"/>
       <c r="E408" s="70"/>
     </row>
     <row r="409" spans="2:5">
-      <c r="B409" s="148"/>
-      <c r="C409" s="148"/>
-      <c r="D409" s="148"/>
+      <c r="B409" s="147"/>
+      <c r="C409" s="147"/>
+      <c r="D409" s="147"/>
       <c r="E409" s="70"/>
     </row>
     <row r="410" spans="2:5">
-      <c r="B410" s="148"/>
-      <c r="C410" s="148"/>
-      <c r="D410" s="148"/>
+      <c r="B410" s="147"/>
+      <c r="C410" s="147"/>
+      <c r="D410" s="147"/>
       <c r="E410" s="70"/>
     </row>
     <row r="411" spans="2:5">
-      <c r="B411" s="148"/>
-      <c r="C411" s="148"/>
-      <c r="D411" s="148"/>
+      <c r="B411" s="147"/>
+      <c r="C411" s="147"/>
+      <c r="D411" s="147"/>
       <c r="E411" s="70"/>
     </row>
     <row r="412" spans="2:5">
-      <c r="B412" s="148"/>
-      <c r="C412" s="148"/>
-      <c r="D412" s="148"/>
+      <c r="B412" s="147"/>
+      <c r="C412" s="147"/>
+      <c r="D412" s="147"/>
       <c r="E412" s="70"/>
     </row>
     <row r="413" spans="2:5">
-      <c r="B413" s="148"/>
-      <c r="C413" s="148"/>
-      <c r="D413" s="148"/>
+      <c r="B413" s="147"/>
+      <c r="C413" s="147"/>
+      <c r="D413" s="147"/>
       <c r="E413" s="70"/>
     </row>
     <row r="414" spans="2:5">
-      <c r="B414" s="148"/>
-      <c r="C414" s="148"/>
-      <c r="D414" s="148"/>
+      <c r="B414" s="147"/>
+      <c r="C414" s="147"/>
+      <c r="D414" s="147"/>
       <c r="E414" s="70"/>
     </row>
     <row r="415" spans="2:5">
-      <c r="B415" s="148"/>
-      <c r="C415" s="148"/>
-      <c r="D415" s="148"/>
+      <c r="B415" s="147"/>
+      <c r="C415" s="147"/>
+      <c r="D415" s="147"/>
       <c r="E415" s="70"/>
     </row>
     <row r="416" spans="2:5">
-      <c r="B416" s="148"/>
-      <c r="C416" s="148"/>
-      <c r="D416" s="148"/>
+      <c r="B416" s="147"/>
+      <c r="C416" s="147"/>
+      <c r="D416" s="147"/>
       <c r="E416" s="70"/>
     </row>
     <row r="417" spans="2:5">
-      <c r="B417" s="148"/>
-      <c r="C417" s="148"/>
-      <c r="D417" s="148"/>
+      <c r="B417" s="147"/>
+      <c r="C417" s="147"/>
+      <c r="D417" s="147"/>
       <c r="E417" s="70"/>
     </row>
     <row r="418" spans="2:5">
-      <c r="B418" s="148"/>
-      <c r="C418" s="148"/>
-      <c r="D418" s="148"/>
+      <c r="B418" s="147"/>
+      <c r="C418" s="147"/>
+      <c r="D418" s="147"/>
       <c r="E418" s="70"/>
     </row>
     <row r="419" spans="2:5">
-      <c r="B419" s="148"/>
-      <c r="C419" s="148"/>
-      <c r="D419" s="148"/>
+      <c r="B419" s="147"/>
+      <c r="C419" s="147"/>
+      <c r="D419" s="147"/>
       <c r="E419" s="70"/>
     </row>
     <row r="420" spans="2:5">
-      <c r="B420" s="148"/>
-      <c r="C420" s="148"/>
-      <c r="D420" s="148"/>
+      <c r="B420" s="147"/>
+      <c r="C420" s="147"/>
+      <c r="D420" s="147"/>
       <c r="E420" s="70"/>
     </row>
     <row r="421" spans="2:5">
-      <c r="B421" s="148"/>
-      <c r="C421" s="148"/>
-      <c r="D421" s="148"/>
+      <c r="B421" s="147"/>
+      <c r="C421" s="147"/>
+      <c r="D421" s="147"/>
       <c r="E421" s="70"/>
     </row>
     <row r="422" spans="2:5">
-      <c r="B422" s="148"/>
-      <c r="C422" s="148"/>
-      <c r="D422" s="148"/>
+      <c r="B422" s="147"/>
+      <c r="C422" s="147"/>
+      <c r="D422" s="147"/>
       <c r="E422" s="70"/>
     </row>
     <row r="423" spans="2:5">
-      <c r="B423" s="148"/>
-      <c r="C423" s="148"/>
-      <c r="D423" s="148"/>
+      <c r="B423" s="147"/>
+      <c r="C423" s="147"/>
+      <c r="D423" s="147"/>
       <c r="E423" s="70"/>
     </row>
     <row r="424" spans="2:5">
-      <c r="B424" s="148"/>
-      <c r="C424" s="148"/>
-      <c r="D424" s="148"/>
+      <c r="B424" s="147"/>
+      <c r="C424" s="147"/>
+      <c r="D424" s="147"/>
       <c r="E424" s="70"/>
     </row>
     <row r="425" spans="2:5">
-      <c r="B425" s="148"/>
-      <c r="C425" s="148"/>
-      <c r="D425" s="148"/>
+      <c r="B425" s="147"/>
+      <c r="C425" s="147"/>
+      <c r="D425" s="147"/>
       <c r="E425" s="70"/>
     </row>
     <row r="426" spans="2:5">
-      <c r="B426" s="148"/>
-      <c r="C426" s="148"/>
-      <c r="D426" s="148"/>
+      <c r="B426" s="147"/>
+      <c r="C426" s="147"/>
+      <c r="D426" s="147"/>
       <c r="E426" s="70"/>
     </row>
     <row r="427" spans="2:5">
-      <c r="B427" s="148"/>
-      <c r="C427" s="148"/>
-      <c r="D427" s="148"/>
+      <c r="B427" s="147"/>
+      <c r="C427" s="147"/>
+      <c r="D427" s="147"/>
       <c r="E427" s="70"/>
     </row>
     <row r="428" spans="2:5">
-      <c r="B428" s="148"/>
-      <c r="C428" s="148"/>
-      <c r="D428" s="148"/>
+      <c r="B428" s="147"/>
+      <c r="C428" s="147"/>
+      <c r="D428" s="147"/>
       <c r="E428" s="70"/>
     </row>
     <row r="429" spans="2:5">
-      <c r="B429" s="148"/>
-      <c r="C429" s="148"/>
-      <c r="D429" s="148"/>
+      <c r="B429" s="147"/>
+      <c r="C429" s="147"/>
+      <c r="D429" s="147"/>
       <c r="E429" s="70"/>
     </row>
     <row r="430" spans="2:5">
-      <c r="B430" s="148"/>
-      <c r="C430" s="148"/>
-      <c r="D430" s="148"/>
+      <c r="B430" s="147"/>
+      <c r="C430" s="147"/>
+      <c r="D430" s="147"/>
       <c r="E430" s="70"/>
     </row>
     <row r="431" spans="2:5">
-      <c r="B431" s="148"/>
-      <c r="C431" s="148"/>
-      <c r="D431" s="148"/>
+      <c r="B431" s="147"/>
+      <c r="C431" s="147"/>
+      <c r="D431" s="147"/>
       <c r="E431" s="70"/>
     </row>
     <row r="432" spans="2:5">
-      <c r="B432" s="148"/>
-      <c r="C432" s="148"/>
-      <c r="D432" s="148"/>
+      <c r="B432" s="147"/>
+      <c r="C432" s="147"/>
+      <c r="D432" s="147"/>
       <c r="E432" s="70"/>
     </row>
     <row r="433" spans="2:5">
-      <c r="B433" s="148"/>
-      <c r="C433" s="148"/>
-      <c r="D433" s="148"/>
+      <c r="B433" s="147"/>
+      <c r="C433" s="147"/>
+      <c r="D433" s="147"/>
       <c r="E433" s="70"/>
     </row>
     <row r="434" spans="2:5">
-      <c r="B434" s="148"/>
-      <c r="C434" s="148"/>
-      <c r="D434" s="148"/>
+      <c r="B434" s="147"/>
+      <c r="C434" s="147"/>
+      <c r="D434" s="147"/>
       <c r="E434" s="70"/>
     </row>
     <row r="435" spans="2:5">
-      <c r="B435" s="148"/>
-      <c r="C435" s="148"/>
-      <c r="D435" s="148"/>
+      <c r="B435" s="147"/>
+      <c r="C435" s="147"/>
+      <c r="D435" s="147"/>
       <c r="E435" s="70"/>
     </row>
     <row r="436" spans="2:5">
-      <c r="B436" s="148"/>
-      <c r="C436" s="148"/>
-      <c r="D436" s="148"/>
+      <c r="B436" s="147"/>
+      <c r="C436" s="147"/>
+      <c r="D436" s="147"/>
       <c r="E436" s="70"/>
     </row>
     <row r="437" spans="2:5">
-      <c r="B437" s="148"/>
-      <c r="C437" s="148"/>
-      <c r="D437" s="148"/>
+      <c r="B437" s="147"/>
+      <c r="C437" s="147"/>
+      <c r="D437" s="147"/>
       <c r="E437" s="70"/>
     </row>
     <row r="438" spans="2:5">
-      <c r="B438" s="148"/>
-      <c r="C438" s="148"/>
-      <c r="D438" s="148"/>
+      <c r="B438" s="147"/>
+      <c r="C438" s="147"/>
+      <c r="D438" s="147"/>
       <c r="E438" s="70"/>
     </row>
     <row r="439" spans="2:5">
-      <c r="B439" s="148"/>
-      <c r="C439" s="148"/>
-      <c r="D439" s="148"/>
+      <c r="B439" s="147"/>
+      <c r="C439" s="147"/>
+      <c r="D439" s="147"/>
       <c r="E439" s="70"/>
     </row>
     <row r="440" spans="2:5">
-      <c r="B440" s="148"/>
-      <c r="C440" s="148"/>
-      <c r="D440" s="148"/>
+      <c r="B440" s="147"/>
+      <c r="C440" s="147"/>
+      <c r="D440" s="147"/>
       <c r="E440" s="70"/>
     </row>
     <row r="441" spans="2:5">
-      <c r="B441" s="148"/>
-      <c r="C441" s="148"/>
-      <c r="D441" s="148"/>
+      <c r="B441" s="147"/>
+      <c r="C441" s="147"/>
+      <c r="D441" s="147"/>
       <c r="E441" s="70"/>
     </row>
     <row r="442" spans="2:5">
-      <c r="B442" s="148"/>
-      <c r="C442" s="148"/>
-      <c r="D442" s="148"/>
+      <c r="B442" s="147"/>
+      <c r="C442" s="147"/>
+      <c r="D442" s="147"/>
       <c r="E442" s="70"/>
     </row>
     <row r="443" spans="2:5">
-      <c r="B443" s="148"/>
-      <c r="C443" s="148"/>
-      <c r="D443" s="148"/>
+      <c r="B443" s="147"/>
+      <c r="C443" s="147"/>
+      <c r="D443" s="147"/>
       <c r="E443" s="70"/>
     </row>
     <row r="444" spans="2:5">
-      <c r="B444" s="148"/>
-      <c r="C444" s="148"/>
-      <c r="D444" s="148"/>
+      <c r="B444" s="147"/>
+      <c r="C444" s="147"/>
+      <c r="D444" s="147"/>
       <c r="E444" s="70"/>
     </row>
     <row r="445" spans="2:5">
-      <c r="B445" s="148"/>
-      <c r="C445" s="148"/>
-      <c r="D445" s="148"/>
+      <c r="B445" s="147"/>
+      <c r="C445" s="147"/>
+      <c r="D445" s="147"/>
       <c r="E445" s="70"/>
     </row>
     <row r="446" spans="2:5">
-      <c r="B446" s="148"/>
-      <c r="C446" s="148"/>
-      <c r="D446" s="148"/>
+      <c r="B446" s="147"/>
+      <c r="C446" s="147"/>
+      <c r="D446" s="147"/>
       <c r="E446" s="70"/>
     </row>
     <row r="447" spans="2:5">
-      <c r="B447" s="148"/>
-      <c r="C447" s="148"/>
-      <c r="D447" s="148"/>
+      <c r="B447" s="147"/>
+      <c r="C447" s="147"/>
+      <c r="D447" s="147"/>
       <c r="E447" s="70"/>
     </row>
     <row r="448" spans="2:5">
-      <c r="B448" s="148"/>
-      <c r="C448" s="148"/>
-      <c r="D448" s="148"/>
+      <c r="B448" s="147"/>
+      <c r="C448" s="147"/>
+      <c r="D448" s="147"/>
       <c r="E448" s="70"/>
     </row>
     <row r="449" spans="2:5">
-      <c r="B449" s="148"/>
-      <c r="C449" s="148"/>
-      <c r="D449" s="148"/>
+      <c r="B449" s="147"/>
+      <c r="C449" s="147"/>
+      <c r="D449" s="147"/>
       <c r="E449" s="70"/>
     </row>
     <row r="450" spans="2:5">
-      <c r="B450" s="148"/>
-      <c r="C450" s="148"/>
-      <c r="D450" s="148"/>
+      <c r="B450" s="147"/>
+      <c r="C450" s="147"/>
+      <c r="D450" s="147"/>
       <c r="E450" s="70"/>
     </row>
     <row r="451" spans="2:5">
-      <c r="B451" s="148"/>
-      <c r="C451" s="148"/>
-      <c r="D451" s="148"/>
+      <c r="B451" s="147"/>
+      <c r="C451" s="147"/>
+      <c r="D451" s="147"/>
       <c r="E451" s="70"/>
     </row>
     <row r="452" spans="2:5">
-      <c r="B452" s="148"/>
-      <c r="C452" s="148"/>
-      <c r="D452" s="148"/>
+      <c r="B452" s="147"/>
+      <c r="C452" s="147"/>
+      <c r="D452" s="147"/>
       <c r="E452" s="70"/>
     </row>
     <row r="453" spans="2:5">
-      <c r="B453" s="148"/>
-      <c r="C453" s="148"/>
-      <c r="D453" s="148"/>
+      <c r="B453" s="147"/>
+      <c r="C453" s="147"/>
+      <c r="D453" s="147"/>
       <c r="E453" s="70"/>
     </row>
     <row r="454" spans="2:5">
-      <c r="B454" s="148"/>
-      <c r="C454" s="148"/>
-      <c r="D454" s="148"/>
+      <c r="B454" s="147"/>
+      <c r="C454" s="147"/>
+      <c r="D454" s="147"/>
       <c r="E454" s="70"/>
     </row>
     <row r="455" spans="2:5">
-      <c r="B455" s="148"/>
-      <c r="C455" s="148"/>
-      <c r="D455" s="148"/>
+      <c r="B455" s="147"/>
+      <c r="C455" s="147"/>
+      <c r="D455" s="147"/>
       <c r="E455" s="70"/>
     </row>
     <row r="456" spans="2:5">
-      <c r="B456" s="148"/>
-      <c r="C456" s="148"/>
-      <c r="D456" s="148"/>
+      <c r="B456" s="147"/>
+      <c r="C456" s="147"/>
+      <c r="D456" s="147"/>
       <c r="E456" s="70"/>
     </row>
     <row r="457" spans="2:5">
-      <c r="B457" s="148"/>
-      <c r="C457" s="148"/>
-      <c r="D457" s="148"/>
+      <c r="B457" s="147"/>
+      <c r="C457" s="147"/>
+      <c r="D457" s="147"/>
       <c r="E457" s="70"/>
     </row>
     <row r="458" spans="2:5">
-      <c r="B458" s="148"/>
-      <c r="C458" s="148"/>
-      <c r="D458" s="148"/>
+      <c r="B458" s="147"/>
+      <c r="C458" s="147"/>
+      <c r="D458" s="147"/>
       <c r="E458" s="70"/>
     </row>
     <row r="459" spans="2:5">
-      <c r="B459" s="148"/>
-      <c r="C459" s="148"/>
-      <c r="D459" s="148"/>
+      <c r="B459" s="147"/>
+      <c r="C459" s="147"/>
+      <c r="D459" s="147"/>
       <c r="E459" s="70"/>
     </row>
     <row r="460" spans="2:5">
-      <c r="B460" s="148"/>
-      <c r="C460" s="148"/>
-      <c r="D460" s="148"/>
+      <c r="B460" s="147"/>
+      <c r="C460" s="147"/>
+      <c r="D460" s="147"/>
       <c r="E460" s="70"/>
     </row>
     <row r="461" spans="2:5">
-      <c r="B461" s="148"/>
-      <c r="C461" s="148"/>
-      <c r="D461" s="148"/>
+      <c r="B461" s="147"/>
+      <c r="C461" s="147"/>
+      <c r="D461" s="147"/>
       <c r="E461" s="70"/>
     </row>
     <row r="462" spans="2:5">
-      <c r="B462" s="148"/>
-      <c r="C462" s="148"/>
-      <c r="D462" s="148"/>
+      <c r="B462" s="147"/>
+      <c r="C462" s="147"/>
+      <c r="D462" s="147"/>
       <c r="E462" s="70"/>
     </row>
     <row r="463" spans="2:5">
-      <c r="B463" s="148"/>
-      <c r="C463" s="148"/>
-      <c r="D463" s="148"/>
+      <c r="B463" s="147"/>
+      <c r="C463" s="147"/>
+      <c r="D463" s="147"/>
       <c r="E463" s="70"/>
     </row>
     <row r="464" spans="2:5">
-      <c r="B464" s="148"/>
-      <c r="C464" s="148"/>
-      <c r="D464" s="148"/>
+      <c r="B464" s="147"/>
+      <c r="C464" s="147"/>
+      <c r="D464" s="147"/>
       <c r="E464" s="70"/>
     </row>
     <row r="465" spans="2:5">
-      <c r="B465" s="148"/>
-      <c r="C465" s="148"/>
-      <c r="D465" s="148"/>
+      <c r="B465" s="147"/>
+      <c r="C465" s="147"/>
+      <c r="D465" s="147"/>
       <c r="E465" s="70"/>
     </row>
     <row r="466" spans="2:5">
-      <c r="B466" s="148"/>
-      <c r="C466" s="148"/>
-      <c r="D466" s="148"/>
+      <c r="B466" s="147"/>
+      <c r="C466" s="147"/>
+      <c r="D466" s="147"/>
       <c r="E466" s="70"/>
     </row>
     <row r="467" spans="2:5">
-      <c r="B467" s="148"/>
-      <c r="C467" s="148"/>
-      <c r="D467" s="148"/>
+      <c r="B467" s="147"/>
+      <c r="C467" s="147"/>
+      <c r="D467" s="147"/>
       <c r="E467" s="70"/>
     </row>
     <row r="468" spans="2:5">
-      <c r="B468" s="148"/>
-      <c r="C468" s="148"/>
-      <c r="D468" s="148"/>
+      <c r="B468" s="147"/>
+      <c r="C468" s="147"/>
+      <c r="D468" s="147"/>
       <c r="E468" s="70"/>
     </row>
     <row r="469" spans="2:5">
-      <c r="B469" s="148"/>
-      <c r="C469" s="148"/>
-      <c r="D469" s="148"/>
+      <c r="B469" s="147"/>
+      <c r="C469" s="147"/>
+      <c r="D469" s="147"/>
       <c r="E469" s="70"/>
     </row>
     <row r="470" spans="2:5">
-      <c r="B470" s="148"/>
-      <c r="C470" s="148"/>
-      <c r="D470" s="148"/>
+      <c r="B470" s="147"/>
+      <c r="C470" s="147"/>
+      <c r="D470" s="147"/>
       <c r="E470" s="70"/>
     </row>
     <row r="471" spans="2:5">
-      <c r="B471" s="148"/>
-      <c r="C471" s="148"/>
-      <c r="D471" s="148"/>
+      <c r="B471" s="147"/>
+      <c r="C471" s="147"/>
+      <c r="D471" s="147"/>
       <c r="E471" s="70"/>
     </row>
     <row r="472" spans="2:5">
-      <c r="B472" s="148"/>
-      <c r="C472" s="148"/>
-      <c r="D472" s="148"/>
+      <c r="B472" s="147"/>
+      <c r="C472" s="147"/>
+      <c r="D472" s="147"/>
       <c r="E472" s="70"/>
     </row>
     <row r="473" spans="2:5">
-      <c r="B473" s="148"/>
-      <c r="C473" s="148"/>
-      <c r="D473" s="148"/>
+      <c r="B473" s="147"/>
+      <c r="C473" s="147"/>
+      <c r="D473" s="147"/>
       <c r="E473" s="70"/>
     </row>
     <row r="474" spans="2:5">
-      <c r="B474" s="148"/>
-      <c r="C474" s="148"/>
-      <c r="D474" s="148"/>
+      <c r="B474" s="147"/>
+      <c r="C474" s="147"/>
+      <c r="D474" s="147"/>
       <c r="E474" s="70"/>
     </row>
     <row r="475" spans="2:5">
-      <c r="B475" s="148"/>
-      <c r="C475" s="148"/>
-      <c r="D475" s="148"/>
+      <c r="B475" s="147"/>
+      <c r="C475" s="147"/>
+      <c r="D475" s="147"/>
       <c r="E475" s="70"/>
     </row>
     <row r="476" spans="2:5">
-      <c r="B476" s="148"/>
-      <c r="C476" s="148"/>
-      <c r="D476" s="148"/>
+      <c r="B476" s="147"/>
+      <c r="C476" s="147"/>
+      <c r="D476" s="147"/>
       <c r="E476" s="70"/>
     </row>
     <row r="477" spans="2:5">
-      <c r="B477" s="148"/>
-      <c r="C477" s="148"/>
-      <c r="D477" s="148"/>
+      <c r="B477" s="147"/>
+      <c r="C477" s="147"/>
+      <c r="D477" s="147"/>
       <c r="E477" s="70"/>
     </row>
     <row r="478" spans="2:5">
-      <c r="B478" s="148"/>
-      <c r="C478" s="148"/>
-      <c r="D478" s="148"/>
+      <c r="B478" s="147"/>
+      <c r="C478" s="147"/>
+      <c r="D478" s="147"/>
       <c r="E478" s="70"/>
     </row>
     <row r="479" spans="2:5">
-      <c r="B479" s="148"/>
-      <c r="C479" s="148"/>
-      <c r="D479" s="148"/>
+      <c r="B479" s="147"/>
+      <c r="C479" s="147"/>
+      <c r="D479" s="147"/>
       <c r="E479" s="70"/>
     </row>
     <row r="480" spans="2:5">
-      <c r="B480" s="148"/>
-      <c r="C480" s="148"/>
-      <c r="D480" s="148"/>
+      <c r="B480" s="147"/>
+      <c r="C480" s="147"/>
+      <c r="D480" s="147"/>
       <c r="E480" s="70"/>
     </row>
     <row r="481" spans="2:5">
-      <c r="B481" s="148"/>
-      <c r="C481" s="148"/>
-      <c r="D481" s="148"/>
+      <c r="B481" s="147"/>
+      <c r="C481" s="147"/>
+      <c r="D481" s="147"/>
       <c r="E481" s="70"/>
     </row>
     <row r="482" spans="2:5">
-      <c r="B482" s="148"/>
-      <c r="C482" s="148"/>
-      <c r="D482" s="148"/>
+      <c r="B482" s="147"/>
+      <c r="C482" s="147"/>
+      <c r="D482" s="147"/>
       <c r="E482" s="70"/>
     </row>
     <row r="483" spans="2:5">
-      <c r="B483" s="148"/>
-      <c r="C483" s="148"/>
-      <c r="D483" s="148"/>
+      <c r="B483" s="147"/>
+      <c r="C483" s="147"/>
+      <c r="D483" s="147"/>
       <c r="E483" s="70"/>
     </row>
     <row r="484" spans="2:5">
-      <c r="B484" s="148"/>
-      <c r="C484" s="148"/>
-      <c r="D484" s="148"/>
+      <c r="B484" s="147"/>
+      <c r="C484" s="147"/>
+      <c r="D484" s="147"/>
       <c r="E484" s="70"/>
     </row>
     <row r="485" spans="2:5">
-      <c r="B485" s="148"/>
-      <c r="C485" s="148"/>
-      <c r="D485" s="148"/>
+      <c r="B485" s="147"/>
+      <c r="C485" s="147"/>
+      <c r="D485" s="147"/>
       <c r="E485" s="70"/>
     </row>
     <row r="486" spans="2:5">
-      <c r="B486" s="148"/>
-      <c r="C486" s="148"/>
-      <c r="D486" s="148"/>
+      <c r="B486" s="147"/>
+      <c r="C486" s="147"/>
+      <c r="D486" s="147"/>
       <c r="E486" s="70"/>
     </row>
     <row r="487" spans="2:5">
-      <c r="B487" s="148"/>
-      <c r="C487" s="148"/>
-      <c r="D487" s="148"/>
+      <c r="B487" s="147"/>
+      <c r="C487" s="147"/>
+      <c r="D487" s="147"/>
       <c r="E487" s="70"/>
     </row>
     <row r="488" spans="2:5">
-      <c r="B488" s="148"/>
-      <c r="C488" s="148"/>
-      <c r="D488" s="148"/>
+      <c r="B488" s="147"/>
+      <c r="C488" s="147"/>
+      <c r="D488" s="147"/>
       <c r="E488" s="70"/>
     </row>
     <row r="489" spans="2:5">
-      <c r="B489" s="148"/>
-      <c r="C489" s="148"/>
-      <c r="D489" s="148"/>
+      <c r="B489" s="147"/>
+      <c r="C489" s="147"/>
+      <c r="D489" s="147"/>
       <c r="E489" s="70"/>
     </row>
     <row r="490" spans="2:5">
-      <c r="B490" s="148"/>
-      <c r="C490" s="148"/>
-      <c r="D490" s="148"/>
+      <c r="B490" s="147"/>
+      <c r="C490" s="147"/>
+      <c r="D490" s="147"/>
       <c r="E490" s="70"/>
     </row>
     <row r="491" spans="2:5">
-      <c r="B491" s="148"/>
-      <c r="C491" s="148"/>
-      <c r="D491" s="148"/>
+      <c r="B491" s="147"/>
+      <c r="C491" s="147"/>
+      <c r="D491" s="147"/>
       <c r="E491" s="70"/>
     </row>
     <row r="492" spans="2:5">
-      <c r="B492" s="148"/>
-      <c r="C492" s="148"/>
-      <c r="D492" s="148"/>
+      <c r="B492" s="147"/>
+      <c r="C492" s="147"/>
+      <c r="D492" s="147"/>
       <c r="E492" s="70"/>
     </row>
     <row r="493" spans="2:5">
-      <c r="B493" s="148"/>
-      <c r="C493" s="148"/>
-      <c r="D493" s="148"/>
+      <c r="B493" s="147"/>
+      <c r="C493" s="147"/>
+      <c r="D493" s="147"/>
       <c r="E493" s="70"/>
     </row>
     <row r="494" spans="2:5">
-      <c r="B494" s="148"/>
-      <c r="C494" s="148"/>
-      <c r="D494" s="148"/>
+      <c r="B494" s="147"/>
+      <c r="C494" s="147"/>
+      <c r="D494" s="147"/>
       <c r="E494" s="70"/>
     </row>
     <row r="495" spans="2:5">
-      <c r="B495" s="148"/>
-      <c r="C495" s="148"/>
-      <c r="D495" s="148"/>
+      <c r="B495" s="147"/>
+      <c r="C495" s="147"/>
+      <c r="D495" s="147"/>
       <c r="E495" s="70"/>
     </row>
     <row r="496" spans="2:5">
-      <c r="B496" s="148"/>
-      <c r="C496" s="148"/>
-      <c r="D496" s="148"/>
+      <c r="B496" s="147"/>
+      <c r="C496" s="147"/>
+      <c r="D496" s="147"/>
       <c r="E496" s="70"/>
     </row>
     <row r="497" spans="2:5">
-      <c r="B497" s="148"/>
-      <c r="C497" s="148"/>
-      <c r="D497" s="148"/>
+      <c r="B497" s="147"/>
+      <c r="C497" s="147"/>
+      <c r="D497" s="147"/>
       <c r="E497" s="70"/>
     </row>
     <row r="498" spans="2:5">
-      <c r="B498" s="148"/>
-      <c r="C498" s="148"/>
-      <c r="D498" s="148"/>
+      <c r="B498" s="147"/>
+      <c r="C498" s="147"/>
+      <c r="D498" s="147"/>
       <c r="E498" s="70"/>
     </row>
     <row r="499" spans="2:5">
-      <c r="B499" s="148"/>
-      <c r="C499" s="148"/>
-      <c r="D499" s="148"/>
+      <c r="B499" s="147"/>
+      <c r="C499" s="147"/>
+      <c r="D499" s="147"/>
       <c r="E499" s="70"/>
     </row>
     <row r="500" spans="2:5">
-      <c r="B500" s="148"/>
-      <c r="C500" s="148"/>
-      <c r="D500" s="148"/>
+      <c r="B500" s="147"/>
+      <c r="C500" s="147"/>
+      <c r="D500" s="147"/>
       <c r="E500" s="70"/>
     </row>
     <row r="501" spans="2:5">
-      <c r="B501" s="148"/>
-      <c r="C501" s="148"/>
-      <c r="D501" s="148"/>
+      <c r="B501" s="147"/>
+      <c r="C501" s="147"/>
+      <c r="D501" s="147"/>
       <c r="E501" s="70"/>
     </row>
     <row r="502" spans="2:5">
-      <c r="B502" s="148"/>
-      <c r="C502" s="148"/>
-      <c r="D502" s="148"/>
+      <c r="B502" s="147"/>
+      <c r="C502" s="147"/>
+      <c r="D502" s="147"/>
       <c r="E502" s="70"/>
     </row>
     <row r="503" spans="2:5">
-      <c r="B503" s="148"/>
-      <c r="C503" s="148"/>
-      <c r="D503" s="148"/>
+      <c r="B503" s="147"/>
+      <c r="C503" s="147"/>
+      <c r="D503" s="147"/>
       <c r="E503" s="70"/>
     </row>
     <row r="504" spans="2:5">
-      <c r="B504" s="148"/>
-      <c r="C504" s="148"/>
-      <c r="D504" s="148"/>
+      <c r="B504" s="147"/>
+      <c r="C504" s="147"/>
+      <c r="D504" s="147"/>
       <c r="E504" s="70"/>
     </row>
     <row r="505" spans="2:5">
-      <c r="B505" s="148"/>
-      <c r="C505" s="148"/>
-      <c r="D505" s="148"/>
+      <c r="B505" s="147"/>
+      <c r="C505" s="147"/>
+      <c r="D505" s="147"/>
       <c r="E505" s="70"/>
     </row>
     <row r="506" spans="2:5">
-      <c r="B506" s="148"/>
-      <c r="C506" s="148"/>
-      <c r="D506" s="148"/>
+      <c r="B506" s="147"/>
+      <c r="C506" s="147"/>
+      <c r="D506" s="147"/>
       <c r="E506" s="70"/>
     </row>
     <row r="507" spans="2:5">
-      <c r="B507" s="148"/>
-      <c r="C507" s="148"/>
-      <c r="D507" s="148"/>
+      <c r="B507" s="147"/>
+      <c r="C507" s="147"/>
+      <c r="D507" s="147"/>
       <c r="E507" s="70"/>
     </row>
     <row r="508" spans="2:5">
-      <c r="B508" s="148"/>
-      <c r="C508" s="148"/>
-      <c r="D508" s="148"/>
+      <c r="B508" s="147"/>
+      <c r="C508" s="147"/>
+      <c r="D508" s="147"/>
       <c r="E508" s="70"/>
     </row>
     <row r="509" spans="2:5">
-      <c r="B509" s="148"/>
-      <c r="C509" s="148"/>
-      <c r="D509" s="148"/>
+      <c r="B509" s="147"/>
+      <c r="C509" s="147"/>
+      <c r="D509" s="147"/>
       <c r="E509" s="70"/>
     </row>
     <row r="510" spans="2:5">
-      <c r="B510" s="148"/>
-      <c r="C510" s="148"/>
-      <c r="D510" s="148"/>
+      <c r="B510" s="147"/>
+      <c r="C510" s="147"/>
+      <c r="D510" s="147"/>
       <c r="E510" s="70"/>
     </row>
     <row r="511" spans="2:5">
-      <c r="B511" s="148"/>
-      <c r="C511" s="148"/>
-      <c r="D511" s="148"/>
+      <c r="B511" s="147"/>
+      <c r="C511" s="147"/>
+      <c r="D511" s="147"/>
       <c r="E511" s="70"/>
     </row>
     <row r="512" spans="2:5">
-      <c r="B512" s="148"/>
-      <c r="C512" s="148"/>
-      <c r="D512" s="148"/>
+      <c r="B512" s="147"/>
+      <c r="C512" s="147"/>
+      <c r="D512" s="147"/>
       <c r="E512" s="70"/>
     </row>
     <row r="513" spans="2:5">
-      <c r="B513" s="148"/>
-      <c r="C513" s="148"/>
-      <c r="D513" s="148"/>
+      <c r="B513" s="147"/>
+      <c r="C513" s="147"/>
+      <c r="D513" s="147"/>
       <c r="E513" s="70"/>
     </row>
     <row r="514" spans="2:5">
-      <c r="B514" s="148"/>
-      <c r="C514" s="148"/>
-      <c r="D514" s="148"/>
+      <c r="B514" s="147"/>
+      <c r="C514" s="147"/>
+      <c r="D514" s="147"/>
       <c r="E514" s="70"/>
     </row>
     <row r="515" spans="2:5">
-      <c r="B515" s="148"/>
-      <c r="C515" s="148"/>
-      <c r="D515" s="148"/>
+      <c r="B515" s="147"/>
+      <c r="C515" s="147"/>
+      <c r="D515" s="147"/>
       <c r="E515" s="70"/>
     </row>
     <row r="516" spans="2:5">
-      <c r="B516" s="148"/>
-      <c r="C516" s="148"/>
-      <c r="D516" s="148"/>
+      <c r="B516" s="147"/>
+      <c r="C516" s="147"/>
+      <c r="D516" s="147"/>
       <c r="E516" s="70"/>
     </row>
     <row r="517" spans="2:5">
-      <c r="B517" s="148"/>
-      <c r="C517" s="148"/>
-      <c r="D517" s="148"/>
+      <c r="B517" s="147"/>
+      <c r="C517" s="147"/>
+      <c r="D517" s="147"/>
       <c r="E517" s="70"/>
     </row>
     <row r="518" spans="2:5">
-      <c r="B518" s="148"/>
-      <c r="C518" s="148"/>
-      <c r="D518" s="148"/>
+      <c r="B518" s="147"/>
+      <c r="C518" s="147"/>
+      <c r="D518" s="147"/>
       <c r="E518" s="70"/>
     </row>
     <row r="519" spans="2:5">
-      <c r="B519" s="148"/>
-      <c r="C519" s="148"/>
-      <c r="D519" s="148"/>
+      <c r="B519" s="147"/>
+      <c r="C519" s="147"/>
+      <c r="D519" s="147"/>
       <c r="E519" s="70"/>
     </row>
     <row r="520" spans="2:5">
-      <c r="B520" s="148"/>
-      <c r="C520" s="148"/>
-      <c r="D520" s="148"/>
+      <c r="B520" s="147"/>
+      <c r="C520" s="147"/>
+      <c r="D520" s="147"/>
       <c r="E520" s="70"/>
     </row>
     <row r="521" spans="2:5">
-      <c r="B521" s="148"/>
-      <c r="C521" s="148"/>
-      <c r="D521" s="148"/>
+      <c r="B521" s="147"/>
+      <c r="C521" s="147"/>
+      <c r="D521" s="147"/>
       <c r="E521" s="70"/>
     </row>
     <row r="522" spans="2:5">
-      <c r="B522" s="148"/>
-      <c r="C522" s="148"/>
-      <c r="D522" s="148"/>
+      <c r="B522" s="147"/>
+      <c r="C522" s="147"/>
+      <c r="D522" s="147"/>
       <c r="E522" s="70"/>
     </row>
     <row r="523" spans="2:5">
-      <c r="B523" s="148"/>
-      <c r="C523" s="148"/>
-      <c r="D523" s="148"/>
+      <c r="B523" s="147"/>
+      <c r="C523" s="147"/>
+      <c r="D523" s="147"/>
       <c r="E523" s="70"/>
     </row>
     <row r="524" spans="2:5">
-      <c r="B524" s="148"/>
-      <c r="C524" s="148"/>
-      <c r="D524" s="148"/>
+      <c r="B524" s="147"/>
+      <c r="C524" s="147"/>
+      <c r="D524" s="147"/>
       <c r="E524" s="70"/>
     </row>
     <row r="525" spans="2:5">
-      <c r="B525" s="148"/>
-      <c r="C525" s="148"/>
-      <c r="D525" s="148"/>
+      <c r="B525" s="147"/>
+      <c r="C525" s="147"/>
+      <c r="D525" s="147"/>
       <c r="E525" s="70"/>
     </row>
     <row r="526" spans="2:5">
-      <c r="B526" s="148"/>
-      <c r="C526" s="148"/>
-      <c r="D526" s="148"/>
+      <c r="B526" s="147"/>
+      <c r="C526" s="147"/>
+      <c r="D526" s="147"/>
       <c r="E526" s="70"/>
     </row>
     <row r="527" spans="2:5">
-      <c r="B527" s="148"/>
-      <c r="C527" s="148"/>
-      <c r="D527" s="148"/>
+      <c r="B527" s="147"/>
+      <c r="C527" s="147"/>
+      <c r="D527" s="147"/>
       <c r="E527" s="70"/>
     </row>
     <row r="528" spans="2:5">
-      <c r="B528" s="148"/>
-      <c r="C528" s="148"/>
-      <c r="D528" s="148"/>
+      <c r="B528" s="147"/>
+      <c r="C528" s="147"/>
+      <c r="D528" s="147"/>
       <c r="E528" s="70"/>
     </row>
     <row r="529" spans="2:5">
-      <c r="B529" s="148"/>
-      <c r="C529" s="148"/>
-      <c r="D529" s="148"/>
+      <c r="B529" s="147"/>
+      <c r="C529" s="147"/>
+      <c r="D529" s="147"/>
       <c r="E529" s="70"/>
     </row>
     <row r="530" spans="2:5">
-      <c r="B530" s="148"/>
-      <c r="C530" s="148"/>
-      <c r="D530" s="148"/>
+      <c r="B530" s="147"/>
+      <c r="C530" s="147"/>
+      <c r="D530" s="147"/>
       <c r="E530" s="70"/>
     </row>
     <row r="531" spans="2:5">
-      <c r="B531" s="148"/>
-      <c r="C531" s="148"/>
-      <c r="D531" s="148"/>
+      <c r="B531" s="147"/>
+      <c r="C531" s="147"/>
+      <c r="D531" s="147"/>
       <c r="E531" s="70"/>
     </row>
     <row r="532" spans="2:5">
-      <c r="B532" s="148"/>
-      <c r="C532" s="148"/>
-      <c r="D532" s="148"/>
+      <c r="B532" s="147"/>
+      <c r="C532" s="147"/>
+      <c r="D532" s="147"/>
       <c r="E532" s="70"/>
     </row>
     <row r="533" spans="2:5">
-      <c r="B533" s="148"/>
-      <c r="C533" s="148"/>
-      <c r="D533" s="148"/>
+      <c r="B533" s="147"/>
+      <c r="C533" s="147"/>
+      <c r="D533" s="147"/>
       <c r="E533" s="70"/>
     </row>
     <row r="534" spans="2:5">
-      <c r="B534" s="148"/>
-      <c r="C534" s="148"/>
-      <c r="D534" s="148"/>
+      <c r="B534" s="147"/>
+      <c r="C534" s="147"/>
+      <c r="D534" s="147"/>
       <c r="E534" s="70"/>
     </row>
     <row r="535" spans="2:5">
-      <c r="B535" s="148"/>
-      <c r="C535" s="148"/>
-      <c r="D535" s="148"/>
+      <c r="B535" s="147"/>
+      <c r="C535" s="147"/>
+      <c r="D535" s="147"/>
       <c r="E535" s="70"/>
     </row>
   </sheetData>
@@ -31452,16 +30490,16 @@
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="156" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
+      <c r="B2" s="155" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="18">
@@ -31470,30 +30508,30 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="184" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
+      <c r="B4" s="180" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="125.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="161" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="162"/>
+      <c r="B5" s="157" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="157"/>
+      <c r="D5" s="157"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="158"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
@@ -31502,23 +30540,23 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
-      <c r="B7" s="177" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="178"/>
-      <c r="D7" s="178"/>
-      <c r="E7" s="178"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="178"/>
-      <c r="H7" s="178"/>
-      <c r="I7" s="179"/>
+      <c r="B7" s="173" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="15.75">
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="181"/>
+      <c r="C8" s="177"/>
       <c r="D8" s="47">
         <v>2015</v>
       </c>
@@ -31539,10 +30577,10 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="183"/>
+      <c r="C9" s="179"/>
       <c r="D9" s="32">
         <v>0</v>
       </c>
@@ -31563,10 +30601,10 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="182" t="s">
+      <c r="B10" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="183"/>
+      <c r="C10" s="179"/>
       <c r="D10" s="32">
         <v>0</v>
       </c>
@@ -31587,10 +30625,10 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="183"/>
+      <c r="C11" s="179"/>
       <c r="D11" s="32">
         <v>0</v>
       </c>
@@ -31611,10 +30649,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="187"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="56">
         <f>SUM(D9:D11)</f>
         <v>0</v>
@@ -31650,47 +30688,47 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="B14" s="188" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="190"/>
+      <c r="B14" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="185"/>
+      <c r="D14" s="185"/>
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="186"/>
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B15" s="163" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="164"/>
+      <c r="B15" s="159" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="160"/>
       <c r="D15" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="G15" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="H15" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="I15" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="54" t="s">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="187" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="159" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="D16" s="26">
         <v>0</v>
@@ -31713,9 +30751,9 @@
       </c>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="159"/>
+      <c r="B17" s="187"/>
       <c r="C17" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="31">
         <v>0</v>
@@ -31738,9 +30776,9 @@
       </c>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="159"/>
+      <c r="B18" s="187"/>
       <c r="C18" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="31">
         <v>0</v>
@@ -31763,9 +30801,9 @@
       </c>
     </row>
     <row r="19" spans="2:9">
-      <c r="B19" s="159"/>
+      <c r="B19" s="187"/>
       <c r="C19" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="31">
         <v>0</v>
@@ -31788,9 +30826,9 @@
       </c>
     </row>
     <row r="20" spans="2:9">
-      <c r="B20" s="159"/>
+      <c r="B20" s="187"/>
       <c r="C20" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D20" s="31">
         <v>0</v>
@@ -31813,9 +30851,9 @@
       </c>
     </row>
     <row r="21" spans="2:9">
-      <c r="B21" s="159"/>
+      <c r="B21" s="187"/>
       <c r="C21" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="32">
         <v>0</v>
@@ -31838,9 +30876,9 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="160"/>
+      <c r="B22" s="188"/>
       <c r="C22" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="32">
         <v>0</v>
@@ -31863,10 +30901,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B23" s="165" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="166"/>
+      <c r="B23" s="161" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="162"/>
       <c r="D23" s="35">
         <f>SUM(D16:D22)</f>
         <v>0</v>
@@ -31893,11 +30931,11 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" thickTop="1">
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="189" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="26">
         <v>0</v>
@@ -31920,9 +30958,9 @@
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="159"/>
+      <c r="B25" s="187"/>
       <c r="C25" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="31">
         <v>0</v>
@@ -31945,9 +30983,9 @@
       </c>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="159"/>
+      <c r="B26" s="187"/>
       <c r="C26" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="31">
         <v>0</v>
@@ -31970,9 +31008,9 @@
       </c>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="159"/>
+      <c r="B27" s="187"/>
       <c r="C27" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="31">
         <v>0</v>
@@ -31995,9 +31033,9 @@
       </c>
     </row>
     <row r="28" spans="2:9">
-      <c r="B28" s="159"/>
+      <c r="B28" s="187"/>
       <c r="C28" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" s="31">
         <v>0</v>
@@ -32020,9 +31058,9 @@
       </c>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="159"/>
+      <c r="B29" s="187"/>
       <c r="C29" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" s="32">
         <v>0</v>
@@ -32045,9 +31083,9 @@
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="160"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30" s="32">
         <v>0</v>
@@ -32062,10 +31100,10 @@
       </c>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="167" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="168"/>
+      <c r="B31" s="163" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="164"/>
       <c r="D31" s="38">
         <f>SUM(D24:D30)</f>
         <v>0</v>
@@ -32092,10 +31130,10 @@
       </c>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="173" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="174"/>
+      <c r="B32" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="170"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
@@ -32104,10 +31142,10 @@
       <c r="I32" s="50"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="175" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="176"/>
+      <c r="B33" s="171" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="172"/>
       <c r="D33" s="41">
         <v>0</v>
       </c>
@@ -32129,10 +31167,10 @@
       </c>
     </row>
     <row r="34" spans="2:9">
-      <c r="B34" s="173" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="174"/>
+      <c r="B34" s="169" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="170"/>
       <c r="D34" s="48"/>
       <c r="E34" s="48"/>
       <c r="F34" s="48"/>
@@ -32141,10 +31179,10 @@
       <c r="I34" s="50"/>
     </row>
     <row r="35" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B35" s="171" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="172"/>
+      <c r="B35" s="167" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="168"/>
       <c r="D35" s="41">
         <v>0</v>
       </c>
@@ -32166,10 +31204,10 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B36" s="169" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="170"/>
+      <c r="B36" s="165" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="166"/>
       <c r="D36" s="44">
         <f t="shared" ref="D36:I36" si="5">SUM(D23,D31,D33,D35)</f>
         <v>0</v>
@@ -32197,12 +31235,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -32213,13 +31255,9 @@
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold"&amp;9@SYSTEM@&amp;C&amp;"-,Bold"&amp;9OTM System Disposition Fact Sheets&amp;R&amp;"-,Bold"&amp;9 Section 4</oddHeader>
   </headerFooter>
@@ -32399,7 +31437,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -32428,7 +31466,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -32436,12 +31474,12 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -32449,7 +31487,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -32457,7 +31495,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -32487,12 +31525,12 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="60">
         <v>0.18</v>
@@ -32500,7 +31538,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="60">
         <v>0.15</v>
@@ -32508,7 +31546,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" s="60">
         <v>1.7999999999999999E-2</v>

--- a/export/Reports/FactSheets/System_Disposition_Fact_Sheet_Template.xlsx
+++ b/export/Reports/FactSheets/System_Disposition_Fact_Sheet_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkirk\workspace\SEMOSS\export\Reports\FactSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksmart\workspace\Semoss\export\Reports\FactSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8535" tabRatio="873" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8532" tabRatio="873"/>
   </bookViews>
   <sheets>
     <sheet name="System Overview" sheetId="21" r:id="rId1"/>
@@ -96,6 +96,7 @@
     <definedName name="xz">[10]Data!$B$3:$B$12</definedName>
   </definedNames>
   <calcPr calcId="152511" calcOnSave="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -249,12 +250,6 @@
     <t># of interfaces to develop</t>
   </si>
   <si>
-    <t># of data objects to receive from DHMSM</t>
-  </si>
-  <si>
-    <t># of data objects provided to DHMSM</t>
-  </si>
-  <si>
     <t>Facility Command (Army, Navy, AF, Joint)</t>
   </si>
   <si>
@@ -403,12 +398,6 @@
     <t>System Disposition</t>
   </si>
   <si>
-    <t>% of data created that DHMSM will provide</t>
-  </si>
-  <si>
-    <t>% of business logic that DHMSM will provide</t>
-  </si>
-  <si>
     <t>Requirements from Requirements Traceability Matrix</t>
   </si>
   <si>
@@ -425,10 +414,6 @@
   </si>
   <si>
     <t>This section defines the current interfaces for @SYSTEM@ that will continue to be supported as the system is transitioned to the future-state environment.</t>
-  </si>
-  <si>
-    <t>Budget information, when available, is broken out by the type of appropriation: Procurement (OP), Operations and Maintenance (O&amp;M), and Research, Development, Test, and Evaluation (RDT&amp;E).
-This report breaks out the required transition costs to migrate @SYSTEM@ to the future-state environment for those systems that will not be replaced by the new electronic health record. The transition modernization estimates are broken into three categories: (1) interface modernization costs, which address the investment requried to modernize the interfaces in order to support data exchange between @SYSTEM@ and the DHMSM EHR; (2) hardware and software modernization costs required to ensure that technical support for @SYSTEM@ is available; and (3) DIACAP costs required to maintain the IA posture of @SYSTEM@.</t>
   </si>
   <si>
     <r>
@@ -462,6 +447,22 @@
   </si>
   <si>
     <t># of Interfaces Supported</t>
+  </si>
+  <si>
+    <t>% of data created that MHS GENESIS will provide</t>
+  </si>
+  <si>
+    <t>% of business logic that MHS GENESIS will provide</t>
+  </si>
+  <si>
+    <t># of data objects provided to MHS GENESIS</t>
+  </si>
+  <si>
+    <t># of data objects to receive from MHS GENESIS</t>
+  </si>
+  <si>
+    <t>Budget information, when available, is broken out by the type of appropriation: Procurement (OP), Operations and Maintenance (O&amp;M), and Research, Development, Test, and Evaluation (RDT&amp;E).
+This report breaks out the required transition costs to migrate @SYSTEM@ to the future-state environment for those systems that will not be replaced by the new electronic health record. The transition modernization estimates are broken into three categories: (1) interface modernization costs, which address the investment requried to modernize the interfaces in order to support data exchange between @SYSTEM@ and MHS GENESIS; (2) hardware and software modernization costs required to ensure that technical support for @SYSTEM@ is available; and (3) DIACAP costs required to maintain the IA posture of @SYSTEM@.</t>
   </si>
 </sst>
 </file>
@@ -25261,32 +25262,32 @@
   </sheetPr>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A15" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16:K17"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16:S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" customWidth="1"/>
     <col min="2" max="2" width="8" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="10" customWidth="1"/>
     <col min="4" max="4" width="8" style="10" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="10" customWidth="1"/>
     <col min="7" max="7" width="9" style="10" customWidth="1"/>
-    <col min="8" max="9" width="7.5703125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="1.85546875" style="10" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="1.28515625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="10" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="10" customWidth="1"/>
+    <col min="8" max="9" width="7.5546875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="1.88671875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="1.33203125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" style="10" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="10" customWidth="1"/>
     <col min="16" max="16" width="8" style="10" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="10" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="10" customWidth="1"/>
-    <col min="20" max="20" width="1.140625" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="10"/>
+    <col min="19" max="19" width="13.6640625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="1.109375" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="8" customFormat="1" ht="100.5" customHeight="1">
@@ -25296,7 +25297,7 @@
       </c>
       <c r="C1" s="72"/>
       <c r="D1" s="73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E1" s="73"/>
       <c r="F1" s="73"/>
@@ -25337,11 +25338,11 @@
     </row>
     <row r="3" spans="1:20" ht="23.25" customHeight="1">
       <c r="B3" s="77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="77"/>
       <c r="D3" s="80" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E3" s="81"/>
       <c r="F3" s="81"/>
@@ -25361,11 +25362,11 @@
     </row>
     <row r="4" spans="1:20" ht="25.5" customHeight="1">
       <c r="B4" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="78" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E4" s="79"/>
       <c r="F4" s="79"/>
@@ -25464,7 +25465,7 @@
     <row r="8" spans="1:20" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A8"/>
       <c r="B8" s="113" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C8" s="113"/>
       <c r="D8" s="113"/>
@@ -25488,7 +25489,7 @@
     <row r="9" spans="1:20" s="15" customFormat="1" ht="33.75" customHeight="1">
       <c r="A9"/>
       <c r="B9" s="138" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C9" s="138"/>
       <c r="D9" s="138"/>
@@ -25512,12 +25513,12 @@
     <row r="10" spans="1:20" s="15" customFormat="1" ht="99" customHeight="1">
       <c r="A10"/>
       <c r="B10" s="103" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C10" s="103"/>
       <c r="D10" s="103"/>
       <c r="E10" s="140" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F10" s="141"/>
       <c r="G10" s="141"/>
@@ -25538,7 +25539,7 @@
     <row r="11" spans="1:20" s="15" customFormat="1" ht="36" customHeight="1">
       <c r="A11"/>
       <c r="B11" s="91" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
@@ -25551,7 +25552,7 @@
       <c r="I11" s="89"/>
       <c r="J11" s="89"/>
       <c r="K11" s="91" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L11" s="92"/>
       <c r="M11" s="92"/>
@@ -25640,7 +25641,7 @@
     <row r="15" spans="1:20" s="15" customFormat="1" ht="62.25" customHeight="1">
       <c r="A15"/>
       <c r="B15" s="136" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C15" s="137"/>
       <c r="D15" s="136" t="s">
@@ -25665,17 +25666,17 @@
       </c>
       <c r="N15" s="137"/>
       <c r="O15" s="64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P15" s="136" t="s">
         <v>48</v>
       </c>
       <c r="Q15" s="137"/>
       <c r="R15" s="64" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="S15" s="65" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="T15"/>
     </row>
@@ -25714,11 +25715,11 @@
       </c>
       <c r="Q16" s="121"/>
       <c r="R16" s="118">
-        <f>COUNTIF('Future Interface Development'!B7:B500,"DHMSM")</f>
+        <f>COUNTIF('Future Interface Development'!B7:B500,"MHS GENESIS")</f>
         <v>0</v>
       </c>
       <c r="S16" s="118">
-        <f>COUNTIF('Future Interface Development'!A7:A500,"DHMSM")</f>
+        <f>COUNTIF('Future Interface Development'!A7:A500,"MHS GENESIS")</f>
         <v>0</v>
       </c>
       <c r="T16"/>
@@ -26262,14 +26263,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="7" width="13.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="13.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26282,9 +26283,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75">
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="143" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="143"/>
       <c r="C2" s="143"/>
@@ -26306,11 +26307,11 @@
     </row>
     <row r="4" spans="1:8" ht="32.25" customHeight="1">
       <c r="A4" s="144" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="145"/>
       <c r="C4" s="146" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D4" s="146"/>
       <c r="E4" s="146"/>
@@ -26328,33 +26329,33 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="28.8">
       <c r="A6" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="D6" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="E6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="F6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="G6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="H6" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" ht="13.8">
       <c r="A7" s="69"/>
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
@@ -26390,11 +26391,11 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="7" width="13.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="13.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26407,9 +26408,9 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75">
+    <row r="2" spans="1:8" ht="18">
       <c r="A2" s="143" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B2" s="143"/>
       <c r="C2" s="143"/>
@@ -26431,11 +26432,11 @@
     </row>
     <row r="4" spans="1:8" ht="36" customHeight="1">
       <c r="A4" s="144" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="145"/>
       <c r="C4" s="146" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D4" s="146"/>
       <c r="E4" s="146"/>
@@ -26453,33 +26454,33 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="30">
+    <row r="6" spans="1:8" ht="28.8">
       <c r="A6" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="D6" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="E6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="F6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="G6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="H6" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" ht="13.8">
       <c r="A7" s="69"/>
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
@@ -26515,10 +26516,10 @@
       <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="7" width="13.140625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="13.109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -26530,9 +26531,9 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="143" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="143"/>
       <c r="C2" s="143"/>
@@ -26552,11 +26553,11 @@
     </row>
     <row r="4" spans="1:7" ht="36.75" customHeight="1">
       <c r="A4" s="144" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B4" s="145"/>
       <c r="C4" s="146" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D4" s="146"/>
       <c r="E4" s="146"/>
@@ -26572,30 +26573,30 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" spans="1:7" ht="28.8">
       <c r="A6" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="D6" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="E6" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="F6" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="G6" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" ht="13.8">
       <c r="A7" s="69"/>
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
@@ -26626,17 +26627,17 @@
   </sheetPr>
   <dimension ref="A1:K535"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="7" customWidth="1"/>
-    <col min="3" max="4" width="12.85546875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -26683,7 +26684,7 @@
     <row r="4" spans="1:11" ht="36.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="148" t="s">
         <v>26</v>
@@ -26710,7 +26711,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" ht="15.6">
       <c r="A6" s="2"/>
       <c r="B6" s="156" t="s">
         <v>13</v>
@@ -26730,7 +26731,7 @@
       <c r="C7" s="154"/>
       <c r="D7" s="154"/>
       <c r="E7" s="61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -30464,14 +30465,14 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="B5" sqref="B5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="1.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="1" customWidth="1"/>
   </cols>
@@ -30491,7 +30492,7 @@
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="155" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C2" s="155"/>
       <c r="D2" s="155"/>
@@ -30502,14 +30503,14 @@
       <c r="I2" s="155"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" ht="18">
+    <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="1"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="180" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C4" s="181"/>
       <c r="D4" s="181"/>
@@ -30523,7 +30524,7 @@
     <row r="5" spans="1:10" ht="125.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="157" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C5" s="157"/>
       <c r="D5" s="157"/>
@@ -30541,7 +30542,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="173" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" s="174"/>
       <c r="D7" s="174"/>
@@ -30552,7 +30553,7 @@
       <c r="I7" s="175"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
+    <row r="8" spans="1:10" ht="15.6">
       <c r="B8" s="176" t="s">
         <v>18</v>
       </c>
@@ -30648,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="B12" s="182" t="s">
         <v>17</v>
       </c>
@@ -30678,7 +30679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="15" thickBot="1">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -30687,9 +30688,9 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="B14" s="184" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C14" s="185"/>
       <c r="D14" s="185"/>
@@ -30701,26 +30702,26 @@
     </row>
     <row r="15" spans="1:10" ht="20.25" customHeight="1" thickBot="1">
       <c r="B15" s="159" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="160"/>
       <c r="D15" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="G15" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="H15" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="I15" s="54" t="s">
         <v>70</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -30728,7 +30729,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="26">
         <v>0</v>
@@ -30753,7 +30754,7 @@
     <row r="17" spans="2:9">
       <c r="B17" s="187"/>
       <c r="C17" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="31">
         <v>0</v>
@@ -30778,7 +30779,7 @@
     <row r="18" spans="2:9">
       <c r="B18" s="187"/>
       <c r="C18" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="31">
         <v>0</v>
@@ -30803,7 +30804,7 @@
     <row r="19" spans="2:9">
       <c r="B19" s="187"/>
       <c r="C19" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="31">
         <v>0</v>
@@ -30828,7 +30829,7 @@
     <row r="20" spans="2:9">
       <c r="B20" s="187"/>
       <c r="C20" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D20" s="31">
         <v>0</v>
@@ -30853,7 +30854,7 @@
     <row r="21" spans="2:9">
       <c r="B21" s="187"/>
       <c r="C21" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" s="32">
         <v>0</v>
@@ -30878,7 +30879,7 @@
     <row r="22" spans="2:9">
       <c r="B22" s="188"/>
       <c r="C22" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" s="32">
         <v>0</v>
@@ -30900,9 +30901,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="15.75" thickBot="1">
+    <row r="23" spans="2:9" ht="15" thickBot="1">
       <c r="B23" s="161" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="162"/>
       <c r="D23" s="35">
@@ -30930,12 +30931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15.75" thickTop="1">
+    <row r="24" spans="2:9" ht="15" thickTop="1">
       <c r="B24" s="189" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="26">
         <v>0</v>
@@ -30960,7 +30961,7 @@
     <row r="25" spans="2:9">
       <c r="B25" s="187"/>
       <c r="C25" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="31">
         <v>0</v>
@@ -30985,7 +30986,7 @@
     <row r="26" spans="2:9">
       <c r="B26" s="187"/>
       <c r="C26" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" s="31">
         <v>0</v>
@@ -31010,7 +31011,7 @@
     <row r="27" spans="2:9">
       <c r="B27" s="187"/>
       <c r="C27" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="31">
         <v>0</v>
@@ -31035,7 +31036,7 @@
     <row r="28" spans="2:9">
       <c r="B28" s="187"/>
       <c r="C28" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28" s="31">
         <v>0</v>
@@ -31060,7 +31061,7 @@
     <row r="29" spans="2:9">
       <c r="B29" s="187"/>
       <c r="C29" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" s="32">
         <v>0</v>
@@ -31085,7 +31086,7 @@
     <row r="30" spans="2:9">
       <c r="B30" s="188"/>
       <c r="C30" s="30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D30" s="32">
         <v>0</v>
@@ -31101,7 +31102,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="163" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C31" s="164"/>
       <c r="D31" s="38">
@@ -31131,7 +31132,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="169" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="170"/>
       <c r="D32" s="48"/>
@@ -31143,7 +31144,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="171" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" s="172"/>
       <c r="D33" s="41">
@@ -31168,7 +31169,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="169" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C34" s="170"/>
       <c r="D34" s="48"/>
@@ -31178,9 +31179,9 @@
       <c r="H34" s="49"/>
       <c r="I34" s="50"/>
     </row>
-    <row r="35" spans="2:9" ht="15.75" thickBot="1">
+    <row r="35" spans="2:9" ht="15" thickBot="1">
       <c r="B35" s="167" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="168"/>
       <c r="D35" s="41">
@@ -31203,9 +31204,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1">
+    <row r="36" spans="2:9" ht="15" thickBot="1">
       <c r="B36" s="165" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" s="166"/>
       <c r="D36" s="44">
@@ -31273,12 +31274,12 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="14.4">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>9</v>
@@ -31292,7 +31293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="14.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -31317,7 +31318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -31342,7 +31343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -31367,7 +31368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -31392,7 +31393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -31417,7 +31418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -31437,7 +31438,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -31474,12 +31475,12 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -31487,7 +31488,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -31495,7 +31496,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -31517,20 +31518,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="59" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="59"/>
+    <col min="1" max="1" width="14.88671875" style="59" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="60">
         <v>0.18</v>
@@ -31538,7 +31539,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" s="60">
         <v>0.15</v>
@@ -31546,7 +31547,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="60">
         <v>1.7999999999999999E-2</v>
